--- a/synuclein_inclusion_biogenesis_2024/image_analysis/mitophagy-analysis/Z_Stack.xlsx
+++ b/synuclein_inclusion_biogenesis_2024/image_analysis/mitophagy-analysis/Z_Stack.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E309"/>
+  <dimension ref="A1:E389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1597</v>
+        <v>1495</v>
       </c>
       <c r="D2" t="n">
-        <v>9274</v>
+        <v>781</v>
       </c>
       <c r="E2" t="n">
-        <v>320</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1218</v>
+        <v>1119</v>
       </c>
       <c r="D3" t="n">
-        <v>9332</v>
+        <v>2555</v>
       </c>
       <c r="E3" t="n">
-        <v>315</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>1682</v>
+        <v>1276</v>
       </c>
       <c r="D4" t="n">
-        <v>8457</v>
+        <v>5639</v>
       </c>
       <c r="E4" t="n">
-        <v>868</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1916</v>
+        <v>1070</v>
       </c>
       <c r="D5" t="n">
-        <v>8365</v>
+        <v>5876</v>
       </c>
       <c r="E5" t="n">
-        <v>1038</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2227</v>
+        <v>945</v>
       </c>
       <c r="D6" t="n">
-        <v>8778</v>
+        <v>5492</v>
       </c>
       <c r="E6" t="n">
-        <v>1252</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>2461</v>
+        <v>942</v>
       </c>
       <c r="D7" t="n">
-        <v>9484</v>
+        <v>5303</v>
       </c>
       <c r="E7" t="n">
-        <v>1366</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +581,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>2273</v>
+        <v>1297</v>
       </c>
       <c r="D8" t="n">
-        <v>8874</v>
+        <v>5525</v>
       </c>
       <c r="E8" t="n">
-        <v>1363</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9">
@@ -600,16 +600,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>2284</v>
+        <v>1500</v>
       </c>
       <c r="D9" t="n">
-        <v>8848</v>
+        <v>5078</v>
       </c>
       <c r="E9" t="n">
-        <v>1981</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10">
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>2883</v>
+        <v>1540</v>
       </c>
       <c r="D10" t="n">
-        <v>7717</v>
+        <v>5102</v>
       </c>
       <c r="E10" t="n">
-        <v>2785</v>
+        <v>553</v>
       </c>
     </row>
     <row r="11">
@@ -638,54 +638,54 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>2547</v>
+        <v>1787</v>
       </c>
       <c r="D11" t="n">
-        <v>6498</v>
+        <v>5182</v>
       </c>
       <c r="E11" t="n">
-        <v>2497</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_02.czi</t>
+          <t>images\FCCP_z-stack_01.czi</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>1425</v>
+        <v>2805</v>
       </c>
       <c r="D12" t="n">
-        <v>8565</v>
+        <v>5842</v>
       </c>
       <c r="E12" t="n">
-        <v>804</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_02.czi</t>
+          <t>images\FCCP_z-stack_01.czi</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>2088</v>
+        <v>2746</v>
       </c>
       <c r="D13" t="n">
-        <v>9124</v>
+        <v>5004</v>
       </c>
       <c r="E13" t="n">
-        <v>906</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="14">
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>3365</v>
+        <v>1044</v>
       </c>
       <c r="D14" t="n">
-        <v>7902</v>
+        <v>1962</v>
       </c>
       <c r="E14" t="n">
-        <v>1989</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15">
@@ -714,16 +714,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>2709</v>
+        <v>1727</v>
       </c>
       <c r="D15" t="n">
-        <v>8090</v>
+        <v>5568</v>
       </c>
       <c r="E15" t="n">
-        <v>2102</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="16">
@@ -733,92 +733,92 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>1924</v>
+        <v>1101</v>
       </c>
       <c r="D16" t="n">
-        <v>8177</v>
+        <v>5921</v>
       </c>
       <c r="E16" t="n">
-        <v>1616</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_03.czi</t>
+          <t>images\FCCP_z-stack_02.czi</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>2460</v>
+        <v>1468</v>
       </c>
       <c r="D17" t="n">
-        <v>8506</v>
+        <v>6023</v>
       </c>
       <c r="E17" t="n">
-        <v>1521</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_03.czi</t>
+          <t>images\FCCP_z-stack_02.czi</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>2334</v>
+        <v>2193</v>
       </c>
       <c r="D18" t="n">
-        <v>8557</v>
+        <v>5715</v>
       </c>
       <c r="E18" t="n">
-        <v>1568</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_03.czi</t>
+          <t>images\FCCP_z-stack_02.czi</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>2622</v>
+        <v>2126</v>
       </c>
       <c r="D19" t="n">
-        <v>8482</v>
+        <v>5506</v>
       </c>
       <c r="E19" t="n">
-        <v>1762</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_03.czi</t>
+          <t>images\FCCP_z-stack_02.czi</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>2971</v>
+        <v>2020</v>
       </c>
       <c r="D20" t="n">
-        <v>8627</v>
+        <v>5036</v>
       </c>
       <c r="E20" t="n">
-        <v>2793</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="21">
@@ -828,16 +828,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>2544</v>
+        <v>1267</v>
       </c>
       <c r="D21" t="n">
-        <v>8744</v>
+        <v>2358</v>
       </c>
       <c r="E21" t="n">
-        <v>2430</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>2734</v>
+        <v>1471</v>
       </c>
       <c r="D22" t="n">
-        <v>9762</v>
+        <v>3745</v>
       </c>
       <c r="E22" t="n">
-        <v>2716</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23">
@@ -866,16 +866,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>3088</v>
+        <v>1300</v>
       </c>
       <c r="D23" t="n">
-        <v>7232</v>
+        <v>6133</v>
       </c>
       <c r="E23" t="n">
-        <v>3087</v>
+        <v>574</v>
       </c>
     </row>
     <row r="24">
@@ -885,130 +885,130 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>3222</v>
+        <v>1128</v>
       </c>
       <c r="D24" t="n">
-        <v>6929</v>
+        <v>6117</v>
       </c>
       <c r="E24" t="n">
-        <v>3222</v>
+        <v>607</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_04.czi</t>
+          <t>images\FCCP_z-stack_03.czi</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C25" t="n">
-        <v>2333</v>
+        <v>1652</v>
       </c>
       <c r="D25" t="n">
-        <v>7800</v>
+        <v>6017</v>
       </c>
       <c r="E25" t="n">
-        <v>1347</v>
+        <v>934</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_04.czi</t>
+          <t>images\FCCP_z-stack_03.czi</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C26" t="n">
-        <v>2210</v>
+        <v>2477</v>
       </c>
       <c r="D26" t="n">
-        <v>7670</v>
+        <v>6005</v>
       </c>
       <c r="E26" t="n">
-        <v>1253</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_04.czi</t>
+          <t>images\FCCP_z-stack_03.czi</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C27" t="n">
-        <v>2314</v>
+        <v>2220</v>
       </c>
       <c r="D27" t="n">
-        <v>8671</v>
+        <v>5869</v>
       </c>
       <c r="E27" t="n">
-        <v>1128</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_04.czi</t>
+          <t>images\FCCP_z-stack_03.czi</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C28" t="n">
-        <v>2331</v>
+        <v>2893</v>
       </c>
       <c r="D28" t="n">
-        <v>9086</v>
+        <v>7218</v>
       </c>
       <c r="E28" t="n">
-        <v>1434</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_04.czi</t>
+          <t>images\FCCP_z-stack_03.czi</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C29" t="n">
-        <v>2402</v>
+        <v>3649</v>
       </c>
       <c r="D29" t="n">
-        <v>8664</v>
+        <v>6314</v>
       </c>
       <c r="E29" t="n">
-        <v>2169</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_04.czi</t>
+          <t>images\FCCP_z-stack_03.czi</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C30" t="n">
-        <v>2519</v>
+        <v>3729</v>
       </c>
       <c r="D30" t="n">
-        <v>7173</v>
+        <v>5655</v>
       </c>
       <c r="E30" t="n">
-        <v>2454</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="31">
@@ -1018,5298 +1018,6818 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>2109</v>
+        <v>1215</v>
       </c>
       <c r="D31" t="n">
-        <v>6974</v>
+        <v>2732</v>
       </c>
       <c r="E31" t="n">
-        <v>2108</v>
+        <v>552</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_05.czi</t>
+          <t>images\FCCP_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>2298</v>
+        <v>1331</v>
       </c>
       <c r="D32" t="n">
-        <v>9042</v>
+        <v>4395</v>
       </c>
       <c r="E32" t="n">
-        <v>1043</v>
+        <v>497</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_05.czi</t>
+          <t>images\FCCP_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>2465</v>
+        <v>1151</v>
       </c>
       <c r="D33" t="n">
-        <v>8827</v>
+        <v>6022</v>
       </c>
       <c r="E33" t="n">
-        <v>1732</v>
+        <v>536</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_05.czi</t>
+          <t>images\FCCP_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" t="n">
-        <v>2441</v>
+        <v>1120</v>
       </c>
       <c r="D34" t="n">
-        <v>8843</v>
+        <v>5593</v>
       </c>
       <c r="E34" t="n">
-        <v>1836</v>
+        <v>512</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_05.czi</t>
+          <t>images\FCCP_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35" t="n">
-        <v>2506</v>
+        <v>1305</v>
       </c>
       <c r="D35" t="n">
-        <v>9058</v>
+        <v>6240</v>
       </c>
       <c r="E35" t="n">
-        <v>1775</v>
+        <v>455</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_05.czi</t>
+          <t>images\FCCP_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>2488</v>
+        <v>1585</v>
       </c>
       <c r="D36" t="n">
-        <v>8560</v>
+        <v>6311</v>
       </c>
       <c r="E36" t="n">
-        <v>1547</v>
+        <v>637</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_05.czi</t>
+          <t>images\FCCP_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" t="n">
-        <v>2414</v>
+        <v>2100</v>
       </c>
       <c r="D37" t="n">
-        <v>9442</v>
+        <v>5889</v>
       </c>
       <c r="E37" t="n">
-        <v>2013</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_05.czi</t>
+          <t>images\FCCP_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C38" t="n">
-        <v>1936</v>
+        <v>2747</v>
       </c>
       <c r="D38" t="n">
-        <v>8113</v>
+        <v>5109</v>
       </c>
       <c r="E38" t="n">
-        <v>1849</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_05.czi</t>
+          <t>images\FCCP_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39" t="n">
-        <v>2061</v>
+        <v>2577</v>
       </c>
       <c r="D39" t="n">
-        <v>8495</v>
+        <v>5027</v>
       </c>
       <c r="E39" t="n">
-        <v>2060</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_06.czi</t>
+          <t>images\FCCP_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>2847</v>
+        <v>1384</v>
       </c>
       <c r="D40" t="n">
-        <v>7266</v>
+        <v>1936</v>
       </c>
       <c r="E40" t="n">
-        <v>1515</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_06.czi</t>
+          <t>images\FCCP_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>2750</v>
+        <v>1877</v>
       </c>
       <c r="D41" t="n">
-        <v>8173</v>
+        <v>3540</v>
       </c>
       <c r="E41" t="n">
-        <v>1525</v>
+        <v>399</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_06.czi</t>
+          <t>images\FCCP_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>3102</v>
+        <v>1335</v>
       </c>
       <c r="D42" t="n">
-        <v>9325</v>
+        <v>6430</v>
       </c>
       <c r="E42" t="n">
-        <v>1940</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_06.czi</t>
+          <t>images\FCCP_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C43" t="n">
-        <v>2576</v>
+        <v>1424</v>
       </c>
       <c r="D43" t="n">
-        <v>9137</v>
+        <v>6330</v>
       </c>
       <c r="E43" t="n">
-        <v>1944</v>
+        <v>750</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_06.czi</t>
+          <t>images\FCCP_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C44" t="n">
-        <v>2618</v>
+        <v>1331</v>
       </c>
       <c r="D44" t="n">
-        <v>7653</v>
+        <v>6081</v>
       </c>
       <c r="E44" t="n">
-        <v>2483</v>
+        <v>790</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_06.czi</t>
+          <t>images\FCCP_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C45" t="n">
-        <v>2146</v>
+        <v>1473</v>
       </c>
       <c r="D45" t="n">
-        <v>6990</v>
+        <v>6030</v>
       </c>
       <c r="E45" t="n">
-        <v>2075</v>
+        <v>741</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_06.czi</t>
+          <t>images\FCCP_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C46" t="n">
-        <v>1122</v>
+        <v>1613</v>
       </c>
       <c r="D46" t="n">
-        <v>3067</v>
+        <v>5329</v>
       </c>
       <c r="E46" t="n">
-        <v>1122</v>
+        <v>780</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_07.czi</t>
+          <t>images\FCCP_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C47" t="n">
-        <v>2891</v>
+        <v>1735</v>
       </c>
       <c r="D47" t="n">
-        <v>5791</v>
+        <v>6038</v>
       </c>
       <c r="E47" t="n">
-        <v>1986</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_07.czi</t>
+          <t>images\FCCP_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C48" t="n">
-        <v>1885</v>
+        <v>1968</v>
       </c>
       <c r="D48" t="n">
-        <v>8330</v>
+        <v>5565</v>
       </c>
       <c r="E48" t="n">
-        <v>1266</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_07.czi</t>
+          <t>images\FCCP_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C49" t="n">
-        <v>2622</v>
+        <v>2477</v>
       </c>
       <c r="D49" t="n">
-        <v>8362</v>
+        <v>5836</v>
       </c>
       <c r="E49" t="n">
-        <v>2160</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_07.czi</t>
+          <t>images\FCCP_z-stack_06.czi</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>2517</v>
+        <v>771</v>
       </c>
       <c r="D50" t="n">
-        <v>7696</v>
+        <v>1520</v>
       </c>
       <c r="E50" t="n">
-        <v>2102</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_07.czi</t>
+          <t>images\FCCP_z-stack_06.czi</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>2770</v>
+        <v>1248</v>
       </c>
       <c r="D51" t="n">
-        <v>7688</v>
+        <v>3445</v>
       </c>
       <c r="E51" t="n">
-        <v>2175</v>
+        <v>345</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_07.czi</t>
+          <t>images\FCCP_z-stack_06.czi</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C52" t="n">
-        <v>2902</v>
+        <v>1623</v>
       </c>
       <c r="D52" t="n">
-        <v>9974</v>
+        <v>5600</v>
       </c>
       <c r="E52" t="n">
-        <v>2444</v>
+        <v>609</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_07.czi</t>
+          <t>images\FCCP_z-stack_06.czi</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C53" t="n">
-        <v>3115</v>
+        <v>1525</v>
       </c>
       <c r="D53" t="n">
-        <v>9984</v>
+        <v>6408</v>
       </c>
       <c r="E53" t="n">
-        <v>2795</v>
+        <v>641</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_07.czi</t>
+          <t>images\FCCP_z-stack_06.czi</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>2199</v>
+        <v>1756</v>
       </c>
       <c r="D54" t="n">
-        <v>9141</v>
+        <v>6315</v>
       </c>
       <c r="E54" t="n">
-        <v>2118</v>
+        <v>708</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_07.czi</t>
+          <t>images\FCCP_z-stack_06.czi</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C55" t="n">
-        <v>1870</v>
+        <v>1808</v>
       </c>
       <c r="D55" t="n">
-        <v>8544</v>
+        <v>6337</v>
       </c>
       <c r="E55" t="n">
-        <v>1848</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_07.czi</t>
+          <t>images\FCCP_z-stack_06.czi</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C56" t="n">
-        <v>2330</v>
+        <v>2507</v>
       </c>
       <c r="D56" t="n">
-        <v>9662</v>
+        <v>5125</v>
       </c>
       <c r="E56" t="n">
-        <v>2314</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_07.czi</t>
+          <t>images\FCCP_z-stack_06.czi</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C57" t="n">
-        <v>1836</v>
+        <v>2544</v>
       </c>
       <c r="D57" t="n">
-        <v>10495</v>
+        <v>4645</v>
       </c>
       <c r="E57" t="n">
-        <v>1833</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_07.czi</t>
+          <t>images\FCCP_z-stack_06.czi</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C58" t="n">
-        <v>1423</v>
+        <v>1590</v>
       </c>
       <c r="D58" t="n">
-        <v>9793</v>
+        <v>2556</v>
       </c>
       <c r="E58" t="n">
-        <v>1423</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_08.czi</t>
+          <t>images\FCCP_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>1942</v>
+        <v>442</v>
       </c>
       <c r="D59" t="n">
-        <v>8636</v>
+        <v>3647</v>
       </c>
       <c r="E59" t="n">
-        <v>978</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_08.czi</t>
+          <t>images\FCCP_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>2224</v>
+        <v>1118</v>
       </c>
       <c r="D60" t="n">
-        <v>8489</v>
+        <v>4647</v>
       </c>
       <c r="E60" t="n">
-        <v>1008</v>
+        <v>443</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_08.czi</t>
+          <t>images\FCCP_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C61" t="n">
-        <v>2442</v>
+        <v>1306</v>
       </c>
       <c r="D61" t="n">
-        <v>8203</v>
+        <v>4724</v>
       </c>
       <c r="E61" t="n">
-        <v>1282</v>
+        <v>652</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_08.czi</t>
+          <t>images\FCCP_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C62" t="n">
-        <v>2500</v>
+        <v>969</v>
       </c>
       <c r="D62" t="n">
-        <v>8442</v>
+        <v>6396</v>
       </c>
       <c r="E62" t="n">
-        <v>2017</v>
+        <v>500</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_08.czi</t>
+          <t>images\FCCP_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C63" t="n">
-        <v>2567</v>
+        <v>1216</v>
       </c>
       <c r="D63" t="n">
-        <v>7680</v>
+        <v>5898</v>
       </c>
       <c r="E63" t="n">
-        <v>2317</v>
+        <v>811</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_08.czi</t>
+          <t>images\FCCP_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C64" t="n">
-        <v>2306</v>
+        <v>1584</v>
       </c>
       <c r="D64" t="n">
-        <v>7774</v>
+        <v>5072</v>
       </c>
       <c r="E64" t="n">
-        <v>2177</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_08.czi</t>
+          <t>images\FCCP_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C65" t="n">
-        <v>2333</v>
+        <v>1839</v>
       </c>
       <c r="D65" t="n">
-        <v>7909</v>
+        <v>5100</v>
       </c>
       <c r="E65" t="n">
-        <v>2281</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_08.czi</t>
+          <t>images\FCCP_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C66" t="n">
-        <v>2648</v>
+        <v>1912</v>
       </c>
       <c r="D66" t="n">
-        <v>8705</v>
+        <v>6312</v>
       </c>
       <c r="E66" t="n">
-        <v>2598</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>images\FCCP_z-stack_08.czi</t>
+          <t>images\FCCP_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C67" t="n">
-        <v>2275</v>
+        <v>2547</v>
       </c>
       <c r="D67" t="n">
-        <v>9777</v>
+        <v>6639</v>
       </c>
       <c r="E67" t="n">
-        <v>2273</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_01.czi</t>
+          <t>images\FCCP_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C68" t="n">
-        <v>3172</v>
+        <v>2205</v>
       </c>
       <c r="D68" t="n">
-        <v>4371</v>
+        <v>6650</v>
       </c>
       <c r="E68" t="n">
-        <v>198</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_01.czi</t>
+          <t>images\FCCP_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C69" t="n">
-        <v>3385</v>
+        <v>2267</v>
       </c>
       <c r="D69" t="n">
-        <v>4137</v>
+        <v>6269</v>
       </c>
       <c r="E69" t="n">
-        <v>103</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_01.czi</t>
+          <t>images\FCCP_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C70" t="n">
-        <v>2962</v>
+        <v>3045</v>
       </c>
       <c r="D70" t="n">
-        <v>3808</v>
+        <v>7421</v>
       </c>
       <c r="E70" t="n">
-        <v>166</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_01.czi</t>
+          <t>images\FCCP_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C71" t="n">
-        <v>3098</v>
+        <v>2511</v>
       </c>
       <c r="D71" t="n">
-        <v>3599</v>
+        <v>7646</v>
       </c>
       <c r="E71" t="n">
-        <v>134</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_01.czi</t>
+          <t>images\FCCP_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C72" t="n">
-        <v>2482</v>
+        <v>2107</v>
       </c>
       <c r="D72" t="n">
-        <v>2836</v>
+        <v>7905</v>
       </c>
       <c r="E72" t="n">
-        <v>66</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_01.czi</t>
+          <t>images\FCCP_z-stack_08.czi</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>1909</v>
+        <v>1237</v>
       </c>
       <c r="D73" t="n">
-        <v>3338</v>
+        <v>4717</v>
       </c>
       <c r="E73" t="n">
-        <v>126</v>
+        <v>603</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_01.czi</t>
+          <t>images\FCCP_z-stack_08.czi</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C74" t="n">
-        <v>1391</v>
+        <v>1825</v>
       </c>
       <c r="D74" t="n">
-        <v>3882</v>
+        <v>4755</v>
       </c>
       <c r="E74" t="n">
-        <v>298</v>
+        <v>880</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_01.czi</t>
+          <t>images\FCCP_z-stack_08.czi</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C75" t="n">
-        <v>1082</v>
+        <v>1342</v>
       </c>
       <c r="D75" t="n">
-        <v>4649</v>
+        <v>6124</v>
       </c>
       <c r="E75" t="n">
-        <v>744</v>
+        <v>489</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_01.czi</t>
+          <t>images\FCCP_z-stack_08.czi</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C76" t="n">
-        <v>1183</v>
+        <v>1377</v>
       </c>
       <c r="D76" t="n">
-        <v>6855</v>
+        <v>5424</v>
       </c>
       <c r="E76" t="n">
-        <v>1132</v>
+        <v>384</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_02.czi</t>
+          <t>images\FCCP_z-stack_08.czi</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C77" t="n">
-        <v>4086</v>
+        <v>1436</v>
       </c>
       <c r="D77" t="n">
-        <v>3885</v>
+        <v>5221</v>
       </c>
       <c r="E77" t="n">
-        <v>213</v>
+        <v>394</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_02.czi</t>
+          <t>images\FCCP_z-stack_08.czi</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C78" t="n">
-        <v>3839</v>
+        <v>1742</v>
       </c>
       <c r="D78" t="n">
-        <v>4405</v>
+        <v>5183</v>
       </c>
       <c r="E78" t="n">
-        <v>95</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_02.czi</t>
+          <t>images\FCCP_z-stack_08.czi</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C79" t="n">
-        <v>3751</v>
+        <v>2258</v>
       </c>
       <c r="D79" t="n">
-        <v>4176</v>
+        <v>5571</v>
       </c>
       <c r="E79" t="n">
-        <v>124</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_02.czi</t>
+          <t>images\FCCP_z-stack_08.czi</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C80" t="n">
-        <v>3731</v>
+        <v>2133</v>
       </c>
       <c r="D80" t="n">
-        <v>4427</v>
+        <v>5755</v>
       </c>
       <c r="E80" t="n">
-        <v>307</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_02.czi</t>
+          <t>images\FCCP_z-stack_08.czi</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C81" t="n">
-        <v>3490</v>
+        <v>2499</v>
       </c>
       <c r="D81" t="n">
-        <v>4996</v>
+        <v>5897</v>
       </c>
       <c r="E81" t="n">
-        <v>288</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_02.czi</t>
+          <t>images\FCCP_z-stack_08.czi</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C82" t="n">
-        <v>3089</v>
+        <v>2825</v>
       </c>
       <c r="D82" t="n">
-        <v>5104</v>
+        <v>6204</v>
       </c>
       <c r="E82" t="n">
-        <v>353</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_02.czi</t>
+          <t>images\FCCP_z-stack_08.czi</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C83" t="n">
-        <v>2059</v>
+        <v>2601</v>
       </c>
       <c r="D83" t="n">
-        <v>5236</v>
+        <v>7265</v>
       </c>
       <c r="E83" t="n">
-        <v>365</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_02.czi</t>
+          <t>images\MCCC1_z-stack_01.czi</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>978</v>
+        <v>1351</v>
       </c>
       <c r="D84" t="n">
-        <v>5019</v>
+        <v>6332</v>
       </c>
       <c r="E84" t="n">
-        <v>165</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_02.czi</t>
+          <t>images\MCCC1_z-stack_01.czi</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C85" t="n">
-        <v>1257</v>
+        <v>1496</v>
       </c>
       <c r="D85" t="n">
-        <v>6737</v>
+        <v>4949</v>
       </c>
       <c r="E85" t="n">
-        <v>332</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_03.czi</t>
+          <t>images\MCCC1_z-stack_01.czi</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>3</v>
       </c>
       <c r="C86" t="n">
-        <v>4275</v>
+        <v>2018</v>
       </c>
       <c r="D86" t="n">
-        <v>3530</v>
+        <v>7516</v>
       </c>
       <c r="E86" t="n">
-        <v>284</v>
+        <v>214</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_03.czi</t>
+          <t>images\MCCC1_z-stack_01.czi</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>4</v>
       </c>
       <c r="C87" t="n">
-        <v>4391</v>
+        <v>1972</v>
       </c>
       <c r="D87" t="n">
-        <v>4155</v>
+        <v>7154</v>
       </c>
       <c r="E87" t="n">
-        <v>309</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_03.czi</t>
+          <t>images\MCCC1_z-stack_01.czi</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>5</v>
       </c>
       <c r="C88" t="n">
-        <v>4433</v>
+        <v>1698</v>
       </c>
       <c r="D88" t="n">
-        <v>4258</v>
+        <v>6717</v>
       </c>
       <c r="E88" t="n">
-        <v>127</v>
+        <v>178</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_03.czi</t>
+          <t>images\MCCC1_z-stack_01.czi</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>6</v>
       </c>
       <c r="C89" t="n">
-        <v>4131</v>
+        <v>1915</v>
       </c>
       <c r="D89" t="n">
-        <v>4605</v>
+        <v>6604</v>
       </c>
       <c r="E89" t="n">
-        <v>126</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_03.czi</t>
+          <t>images\MCCC1_z-stack_01.czi</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>7</v>
       </c>
       <c r="C90" t="n">
-        <v>3539</v>
+        <v>1610</v>
       </c>
       <c r="D90" t="n">
-        <v>3861</v>
+        <v>6197</v>
       </c>
       <c r="E90" t="n">
-        <v>163</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_03.czi</t>
+          <t>images\MCCC1_z-stack_01.czi</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>8</v>
       </c>
       <c r="C91" t="n">
-        <v>2253</v>
+        <v>1527</v>
       </c>
       <c r="D91" t="n">
-        <v>4773</v>
+        <v>5991</v>
       </c>
       <c r="E91" t="n">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_03.czi</t>
+          <t>images\MCCC1_z-stack_01.czi</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>9</v>
       </c>
       <c r="C92" t="n">
-        <v>1493</v>
+        <v>1231</v>
       </c>
       <c r="D92" t="n">
-        <v>5449</v>
+        <v>6163</v>
       </c>
       <c r="E92" t="n">
-        <v>208</v>
+        <v>408</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_03.czi</t>
+          <t>images\MCCC1_z-stack_01.czi</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>10</v>
       </c>
       <c r="C93" t="n">
-        <v>696</v>
+        <v>1216</v>
       </c>
       <c r="D93" t="n">
-        <v>6395</v>
+        <v>5676</v>
       </c>
       <c r="E93" t="n">
-        <v>221</v>
+        <v>899</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_03.czi</t>
+          <t>images\MCCC1_z-stack_01.czi</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>11</v>
       </c>
       <c r="C94" t="n">
-        <v>316</v>
+        <v>1712</v>
       </c>
       <c r="D94" t="n">
-        <v>8596</v>
+        <v>5228</v>
       </c>
       <c r="E94" t="n">
-        <v>316</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_03.czi</t>
+          <t>images\MCCC1_z-stack_02.czi</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>1720</v>
+        <v>1395</v>
       </c>
       <c r="D95" t="n">
-        <v>6897</v>
+        <v>5646</v>
       </c>
       <c r="E95" t="n">
-        <v>1668</v>
+        <v>380</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_04.czi</t>
+          <t>images\MCCC1_z-stack_02.czi</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96" t="n">
-        <v>2436</v>
+        <v>1259</v>
       </c>
       <c r="D96" t="n">
-        <v>2213</v>
+        <v>3486</v>
       </c>
       <c r="E96" t="n">
-        <v>94</v>
+        <v>221</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_04.czi</t>
+          <t>images\MCCC1_z-stack_02.czi</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C97" t="n">
-        <v>3453</v>
+        <v>2373</v>
       </c>
       <c r="D97" t="n">
-        <v>4324</v>
+        <v>6822</v>
       </c>
       <c r="E97" t="n">
-        <v>52</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_04.czi</t>
+          <t>images\MCCC1_z-stack_02.czi</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C98" t="n">
-        <v>3842</v>
+        <v>2584</v>
       </c>
       <c r="D98" t="n">
-        <v>4537</v>
+        <v>7176</v>
       </c>
       <c r="E98" t="n">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_04.czi</t>
+          <t>images\MCCC1_z-stack_02.czi</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C99" t="n">
-        <v>3360</v>
+        <v>2585</v>
       </c>
       <c r="D99" t="n">
-        <v>3361</v>
+        <v>6814</v>
       </c>
       <c r="E99" t="n">
-        <v>239</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_04.czi</t>
+          <t>images\MCCC1_z-stack_02.czi</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C100" t="n">
-        <v>2100</v>
+        <v>2174</v>
       </c>
       <c r="D100" t="n">
-        <v>3231</v>
+        <v>6776</v>
       </c>
       <c r="E100" t="n">
-        <v>301</v>
+        <v>238</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_04.czi</t>
+          <t>images\MCCC1_z-stack_02.czi</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C101" t="n">
-        <v>1281</v>
+        <v>2030</v>
       </c>
       <c r="D101" t="n">
-        <v>2789</v>
+        <v>6867</v>
       </c>
       <c r="E101" t="n">
-        <v>76</v>
+        <v>233</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_04.czi</t>
+          <t>images\MCCC1_z-stack_02.czi</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C102" t="n">
-        <v>438</v>
+        <v>2025</v>
       </c>
       <c r="D102" t="n">
-        <v>2973</v>
+        <v>6717</v>
       </c>
       <c r="E102" t="n">
-        <v>4</v>
+        <v>319</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_05.czi</t>
+          <t>images\MCCC1_z-stack_02.czi</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C103" t="n">
-        <v>1722</v>
+        <v>1355</v>
       </c>
       <c r="D103" t="n">
-        <v>2394</v>
+        <v>6649</v>
       </c>
       <c r="E103" t="n">
-        <v>447</v>
+        <v>301</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_05.czi</t>
+          <t>images\MCCC1_z-stack_02.czi</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C104" t="n">
-        <v>2118</v>
+        <v>1115</v>
       </c>
       <c r="D104" t="n">
-        <v>3022</v>
+        <v>4533</v>
       </c>
       <c r="E104" t="n">
-        <v>505</v>
+        <v>193</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_05.czi</t>
+          <t>images\MCCC1_z-stack_02.czi</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C105" t="n">
-        <v>2252</v>
+        <v>1654</v>
       </c>
       <c r="D105" t="n">
-        <v>2871</v>
+        <v>4870</v>
       </c>
       <c r="E105" t="n">
-        <v>150</v>
+        <v>402</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_05.czi</t>
+          <t>images\MCCC1_z-stack_03.czi</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>1873</v>
+        <v>1961</v>
       </c>
       <c r="D106" t="n">
-        <v>2683</v>
+        <v>6426</v>
       </c>
       <c r="E106" t="n">
-        <v>54</v>
+        <v>708</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_05.czi</t>
+          <t>images\MCCC1_z-stack_03.czi</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C107" t="n">
-        <v>2646</v>
+        <v>1682</v>
       </c>
       <c r="D107" t="n">
-        <v>2948</v>
+        <v>4875</v>
       </c>
       <c r="E107" t="n">
-        <v>36</v>
+        <v>243</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_05.czi</t>
+          <t>images\MCCC1_z-stack_03.czi</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C108" t="n">
-        <v>2865</v>
+        <v>2407</v>
       </c>
       <c r="D108" t="n">
-        <v>3683</v>
+        <v>6141</v>
       </c>
       <c r="E108" t="n">
-        <v>103</v>
+        <v>284</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_05.czi</t>
+          <t>images\MCCC1_z-stack_03.czi</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C109" t="n">
-        <v>2111</v>
+        <v>2503</v>
       </c>
       <c r="D109" t="n">
-        <v>5382</v>
+        <v>6996</v>
       </c>
       <c r="E109" t="n">
-        <v>360</v>
+        <v>331</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_05.czi</t>
+          <t>images\MCCC1_z-stack_03.czi</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C110" t="n">
-        <v>769</v>
+        <v>2552</v>
       </c>
       <c r="D110" t="n">
-        <v>3584</v>
+        <v>7017</v>
       </c>
       <c r="E110" t="n">
-        <v>109</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_05.czi</t>
+          <t>images\MCCC1_z-stack_03.czi</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C111" t="n">
-        <v>704</v>
+        <v>2435</v>
       </c>
       <c r="D111" t="n">
-        <v>6347</v>
+        <v>7103</v>
       </c>
       <c r="E111" t="n">
-        <v>502</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_06.czi</t>
+          <t>images\MCCC1_z-stack_03.czi</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C112" t="n">
-        <v>3005</v>
+        <v>2267</v>
       </c>
       <c r="D112" t="n">
-        <v>6059</v>
+        <v>6519</v>
       </c>
       <c r="E112" t="n">
-        <v>296</v>
+        <v>170</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_06.czi</t>
+          <t>images\MCCC1_z-stack_03.czi</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C113" t="n">
-        <v>3151</v>
+        <v>1601</v>
       </c>
       <c r="D113" t="n">
-        <v>5493</v>
+        <v>6807</v>
       </c>
       <c r="E113" t="n">
-        <v>559</v>
+        <v>156</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_06.czi</t>
+          <t>images\MCCC1_z-stack_03.czi</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C114" t="n">
-        <v>1997</v>
+        <v>1359</v>
       </c>
       <c r="D114" t="n">
-        <v>5272</v>
+        <v>6574</v>
       </c>
       <c r="E114" t="n">
-        <v>483</v>
+        <v>217</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_06.czi</t>
+          <t>images\MCCC1_z-stack_03.czi</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C115" t="n">
-        <v>1344</v>
+        <v>848</v>
       </c>
       <c r="D115" t="n">
-        <v>3313</v>
+        <v>6487</v>
       </c>
       <c r="E115" t="n">
-        <v>582</v>
+        <v>244</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_06.czi</t>
+          <t>images\MCCC1_z-stack_03.czi</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C116" t="n">
-        <v>1309</v>
+        <v>527</v>
       </c>
       <c r="D116" t="n">
-        <v>3630</v>
+        <v>7635</v>
       </c>
       <c r="E116" t="n">
-        <v>556</v>
+        <v>523</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_06.czi</t>
+          <t>images\MCCC1_z-stack_03.czi</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C117" t="n">
-        <v>846</v>
+        <v>1862</v>
       </c>
       <c r="D117" t="n">
-        <v>3373</v>
+        <v>6293</v>
       </c>
       <c r="E117" t="n">
-        <v>646</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_07.czi</t>
+          <t>images\MCCC1_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>4167</v>
+        <v>1739</v>
       </c>
       <c r="D118" t="n">
-        <v>4773</v>
+        <v>3049</v>
       </c>
       <c r="E118" t="n">
-        <v>376</v>
+        <v>769</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_07.czi</t>
+          <t>images\MCCC1_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>3424</v>
+        <v>1387</v>
       </c>
       <c r="D119" t="n">
-        <v>5232</v>
+        <v>4391</v>
       </c>
       <c r="E119" t="n">
-        <v>378</v>
+        <v>176</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_07.czi</t>
+          <t>images\MCCC1_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C120" t="n">
-        <v>1844</v>
+        <v>1891</v>
       </c>
       <c r="D120" t="n">
-        <v>5733</v>
+        <v>4718</v>
       </c>
       <c r="E120" t="n">
-        <v>252</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_07.czi</t>
+          <t>images\MCCC1_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C121" t="n">
-        <v>1037</v>
+        <v>2309</v>
       </c>
       <c r="D121" t="n">
-        <v>4892</v>
+        <v>6859</v>
       </c>
       <c r="E121" t="n">
-        <v>861</v>
+        <v>55</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_07.czi</t>
+          <t>images\MCCC1_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C122" t="n">
-        <v>2350</v>
+        <v>2341</v>
       </c>
       <c r="D122" t="n">
-        <v>3651</v>
+        <v>7342</v>
       </c>
       <c r="E122" t="n">
-        <v>2104</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_07.czi</t>
+          <t>images\MCCC1_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C123" t="n">
-        <v>975</v>
+        <v>2192</v>
       </c>
       <c r="D123" t="n">
-        <v>5627</v>
+        <v>5847</v>
       </c>
       <c r="E123" t="n">
-        <v>975</v>
+        <v>330</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_08.czi</t>
+          <t>images\MCCC1_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C124" t="n">
-        <v>4329</v>
+        <v>1766</v>
       </c>
       <c r="D124" t="n">
-        <v>4337</v>
+        <v>5622</v>
       </c>
       <c r="E124" t="n">
-        <v>193</v>
+        <v>538</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_08.czi</t>
+          <t>images\MCCC1_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C125" t="n">
-        <v>3761</v>
+        <v>1257</v>
       </c>
       <c r="D125" t="n">
-        <v>8172</v>
+        <v>5258</v>
       </c>
       <c r="E125" t="n">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_08.czi</t>
+          <t>images\MCCC1_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C126" t="n">
-        <v>4297</v>
+        <v>1000</v>
       </c>
       <c r="D126" t="n">
-        <v>6999</v>
+        <v>4718</v>
       </c>
       <c r="E126" t="n">
-        <v>457</v>
+        <v>254</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_08.czi</t>
+          <t>images\MCCC1_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>4347</v>
+        <v>1539</v>
       </c>
       <c r="D127" t="n">
-        <v>6512</v>
+        <v>5337</v>
       </c>
       <c r="E127" t="n">
-        <v>288</v>
+        <v>898</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_08.czi</t>
+          <t>images\MCCC1_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C128" t="n">
-        <v>2578</v>
+        <v>925</v>
       </c>
       <c r="D128" t="n">
-        <v>4583</v>
+        <v>2856</v>
       </c>
       <c r="E128" t="n">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_08.czi</t>
+          <t>images\MCCC1_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C129" t="n">
-        <v>1309</v>
+        <v>1361</v>
       </c>
       <c r="D129" t="n">
-        <v>3550</v>
+        <v>4760</v>
       </c>
       <c r="E129" t="n">
-        <v>338</v>
+        <v>484</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>images\MCCC1_z-stack_08.czi</t>
+          <t>images\MCCC1_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C130" t="n">
-        <v>2373</v>
+        <v>1506</v>
       </c>
       <c r="D130" t="n">
-        <v>2319</v>
+        <v>5999</v>
       </c>
       <c r="E130" t="n">
-        <v>1439</v>
+        <v>577</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_01.czi</t>
+          <t>images\MCCC1_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C131" t="n">
-        <v>3377</v>
+        <v>1377</v>
       </c>
       <c r="D131" t="n">
-        <v>3412</v>
+        <v>6217</v>
       </c>
       <c r="E131" t="n">
-        <v>152</v>
+        <v>201</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_01.czi</t>
+          <t>images\MCCC1_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C132" t="n">
-        <v>3881</v>
+        <v>1165</v>
       </c>
       <c r="D132" t="n">
-        <v>3741</v>
+        <v>5655</v>
       </c>
       <c r="E132" t="n">
-        <v>211</v>
+        <v>52</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_01.czi</t>
+          <t>images\MCCC1_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C133" t="n">
-        <v>3828</v>
+        <v>1905</v>
       </c>
       <c r="D133" t="n">
-        <v>4318</v>
+        <v>5809</v>
       </c>
       <c r="E133" t="n">
-        <v>259</v>
+        <v>86</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_01.czi</t>
+          <t>images\MCCC1_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C134" t="n">
-        <v>3606</v>
+        <v>2185</v>
       </c>
       <c r="D134" t="n">
-        <v>4085</v>
+        <v>5850</v>
       </c>
       <c r="E134" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_01.czi</t>
+          <t>images\MCCC1_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C135" t="n">
-        <v>3540</v>
+        <v>1959</v>
       </c>
       <c r="D135" t="n">
-        <v>5153</v>
+        <v>6605</v>
       </c>
       <c r="E135" t="n">
-        <v>288</v>
+        <v>472</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_01.czi</t>
+          <t>images\MCCC1_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C136" t="n">
-        <v>2241</v>
+        <v>651</v>
       </c>
       <c r="D136" t="n">
-        <v>5511</v>
+        <v>5448</v>
       </c>
       <c r="E136" t="n">
-        <v>310</v>
+        <v>94</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_01.czi</t>
+          <t>images\MCCC1_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C137" t="n">
-        <v>1817</v>
+        <v>882</v>
       </c>
       <c r="D137" t="n">
-        <v>4200</v>
+        <v>5440</v>
       </c>
       <c r="E137" t="n">
-        <v>919</v>
+        <v>531</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_01.czi</t>
+          <t>images\MCCC1_z-stack_06.czi</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>2066</v>
+        <v>784</v>
       </c>
       <c r="D138" t="n">
-        <v>6633</v>
+        <v>6599</v>
       </c>
       <c r="E138" t="n">
-        <v>1227</v>
+        <v>57</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_02.czi</t>
+          <t>images\MCCC1_z-stack_06.czi</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C139" t="n">
-        <v>3486</v>
+        <v>1095</v>
       </c>
       <c r="D139" t="n">
-        <v>3971</v>
+        <v>6312</v>
       </c>
       <c r="E139" t="n">
-        <v>124</v>
+        <v>22</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_02.czi</t>
+          <t>images\MCCC1_z-stack_06.czi</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C140" t="n">
-        <v>3911</v>
+        <v>1957</v>
       </c>
       <c r="D140" t="n">
-        <v>3756</v>
+        <v>7683</v>
       </c>
       <c r="E140" t="n">
-        <v>166</v>
+        <v>206</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_02.czi</t>
+          <t>images\MCCC1_z-stack_06.czi</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C141" t="n">
-        <v>4019</v>
+        <v>1920</v>
       </c>
       <c r="D141" t="n">
-        <v>4057</v>
+        <v>7524</v>
       </c>
       <c r="E141" t="n">
-        <v>384</v>
+        <v>496</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_02.czi</t>
+          <t>images\MCCC1_z-stack_06.czi</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C142" t="n">
-        <v>4012</v>
+        <v>1386</v>
       </c>
       <c r="D142" t="n">
-        <v>3481</v>
+        <v>6935</v>
       </c>
       <c r="E142" t="n">
-        <v>242</v>
+        <v>395</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_02.czi</t>
+          <t>images\MCCC1_z-stack_06.czi</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C143" t="n">
-        <v>3699</v>
+        <v>1197</v>
       </c>
       <c r="D143" t="n">
-        <v>2791</v>
+        <v>4981</v>
       </c>
       <c r="E143" t="n">
-        <v>254</v>
+        <v>574</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_02.czi</t>
+          <t>images\MCCC1_z-stack_06.czi</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C144" t="n">
-        <v>2924</v>
+        <v>1640</v>
       </c>
       <c r="D144" t="n">
-        <v>3355</v>
+        <v>5019</v>
       </c>
       <c r="E144" t="n">
-        <v>788</v>
+        <v>820</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_02.czi</t>
+          <t>images\MCCC1_z-stack_06.czi</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C145" t="n">
-        <v>2595</v>
+        <v>1365</v>
       </c>
       <c r="D145" t="n">
-        <v>3831</v>
+        <v>4846</v>
       </c>
       <c r="E145" t="n">
-        <v>1653</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_02.czi</t>
+          <t>images\MCCC1_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>1966</v>
+        <v>2279</v>
       </c>
       <c r="D146" t="n">
-        <v>2699</v>
+        <v>5358</v>
       </c>
       <c r="E146" t="n">
-        <v>1359</v>
+        <v>302</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_02.czi</t>
+          <t>images\MCCC1_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C147" t="n">
-        <v>1798</v>
+        <v>1815</v>
       </c>
       <c r="D147" t="n">
-        <v>3440</v>
+        <v>4362</v>
       </c>
       <c r="E147" t="n">
-        <v>1587</v>
+        <v>139</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_03.czi</t>
+          <t>images\MCCC1_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>3</v>
       </c>
       <c r="C148" t="n">
-        <v>3782</v>
+        <v>2480</v>
       </c>
       <c r="D148" t="n">
-        <v>3611</v>
+        <v>6010</v>
       </c>
       <c r="E148" t="n">
-        <v>315</v>
+        <v>237</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_03.czi</t>
+          <t>images\MCCC1_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>4</v>
       </c>
       <c r="C149" t="n">
-        <v>4190</v>
+        <v>1920</v>
       </c>
       <c r="D149" t="n">
-        <v>5099</v>
+        <v>6793</v>
       </c>
       <c r="E149" t="n">
-        <v>345</v>
+        <v>272</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_03.czi</t>
+          <t>images\MCCC1_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>5</v>
       </c>
       <c r="C150" t="n">
-        <v>3909</v>
+        <v>1269</v>
       </c>
       <c r="D150" t="n">
-        <v>4039</v>
+        <v>6367</v>
       </c>
       <c r="E150" t="n">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_03.czi</t>
+          <t>images\MCCC1_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>6</v>
       </c>
       <c r="C151" t="n">
-        <v>2492</v>
+        <v>1180</v>
       </c>
       <c r="D151" t="n">
-        <v>3028</v>
+        <v>5546</v>
       </c>
       <c r="E151" t="n">
-        <v>574</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_03.czi</t>
+          <t>images\MCCC1_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>7</v>
       </c>
       <c r="C152" t="n">
-        <v>1268</v>
+        <v>2844</v>
       </c>
       <c r="D152" t="n">
-        <v>5144</v>
+        <v>4881</v>
       </c>
       <c r="E152" t="n">
-        <v>916</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_03.czi</t>
+          <t>images\MCCC1_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>8</v>
       </c>
       <c r="C153" t="n">
-        <v>2040</v>
+        <v>1813</v>
       </c>
       <c r="D153" t="n">
-        <v>8317</v>
+        <v>5936</v>
       </c>
       <c r="E153" t="n">
-        <v>1760</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_04.czi</t>
+          <t>images\MCCC1_z-stack_08.czi</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>3772</v>
+        <v>2496</v>
       </c>
       <c r="D154" t="n">
-        <v>5569</v>
+        <v>6757</v>
       </c>
       <c r="E154" t="n">
-        <v>154</v>
+        <v>107</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_04.czi</t>
+          <t>images\MCCC1_z-stack_08.czi</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C155" t="n">
-        <v>3754</v>
+        <v>1977</v>
       </c>
       <c r="D155" t="n">
-        <v>6065</v>
+        <v>5760</v>
       </c>
       <c r="E155" t="n">
-        <v>352</v>
+        <v>92</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_04.czi</t>
+          <t>images\MCCC1_z-stack_08.czi</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C156" t="n">
-        <v>3558</v>
+        <v>2537</v>
       </c>
       <c r="D156" t="n">
-        <v>5615</v>
+        <v>6403</v>
       </c>
       <c r="E156" t="n">
-        <v>227</v>
+        <v>135</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_04.czi</t>
+          <t>images\MCCC1_z-stack_08.czi</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C157" t="n">
-        <v>2911</v>
+        <v>2289</v>
       </c>
       <c r="D157" t="n">
-        <v>5649</v>
+        <v>7915</v>
       </c>
       <c r="E157" t="n">
-        <v>243</v>
+        <v>112</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_04.czi</t>
+          <t>images\MCCC1_z-stack_08.czi</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C158" t="n">
-        <v>3477</v>
+        <v>2595</v>
       </c>
       <c r="D158" t="n">
-        <v>5617</v>
+        <v>7125</v>
       </c>
       <c r="E158" t="n">
-        <v>254</v>
+        <v>284</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_04.czi</t>
+          <t>images\MCCC1_z-stack_08.czi</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C159" t="n">
-        <v>3416</v>
+        <v>2545</v>
       </c>
       <c r="D159" t="n">
-        <v>5874</v>
+        <v>6784</v>
       </c>
       <c r="E159" t="n">
-        <v>302</v>
+        <v>83</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_04.czi</t>
+          <t>images\MCCC1_z-stack_08.czi</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C160" t="n">
-        <v>2722</v>
+        <v>1794</v>
       </c>
       <c r="D160" t="n">
-        <v>4720</v>
+        <v>5796</v>
       </c>
       <c r="E160" t="n">
-        <v>420</v>
+        <v>170</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_04.czi</t>
+          <t>images\MCCC1_z-stack_08.czi</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C161" t="n">
-        <v>2462</v>
+        <v>1563</v>
       </c>
       <c r="D161" t="n">
-        <v>4724</v>
+        <v>4789</v>
       </c>
       <c r="E161" t="n">
-        <v>591</v>
+        <v>516</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_04.czi</t>
+          <t>images\MCCC1_z-stack_08.czi</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C162" t="n">
-        <v>2094</v>
+        <v>2755</v>
       </c>
       <c r="D162" t="n">
-        <v>5288</v>
+        <v>3694</v>
       </c>
       <c r="E162" t="n">
-        <v>914</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_04.czi</t>
+          <t>images\SCR_z-stack_01.czi</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>1450</v>
+        <v>1497</v>
       </c>
       <c r="D163" t="n">
-        <v>6174</v>
+        <v>6676</v>
       </c>
       <c r="E163" t="n">
-        <v>975</v>
+        <v>75</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_04.czi</t>
+          <t>images\SCR_z-stack_01.czi</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C164" t="n">
-        <v>975</v>
+        <v>1635</v>
       </c>
       <c r="D164" t="n">
-        <v>4204</v>
+        <v>5346</v>
       </c>
       <c r="E164" t="n">
-        <v>499</v>
+        <v>128</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_05.czi</t>
+          <t>images\SCR_z-stack_01.czi</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>3</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>2169</v>
       </c>
       <c r="D165" t="n">
-        <v>4207</v>
+        <v>6329</v>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_05.czi</t>
+          <t>images\SCR_z-stack_01.czi</t>
         </is>
       </c>
       <c r="B166" t="n">
         <v>4</v>
       </c>
       <c r="C166" t="n">
-        <v>2959</v>
+        <v>2534</v>
       </c>
       <c r="D166" t="n">
-        <v>5315</v>
+        <v>6526</v>
       </c>
       <c r="E166" t="n">
-        <v>57</v>
+        <v>176</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_05.czi</t>
+          <t>images\SCR_z-stack_01.czi</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>5</v>
       </c>
       <c r="C167" t="n">
-        <v>3148</v>
+        <v>2465</v>
       </c>
       <c r="D167" t="n">
-        <v>3974</v>
+        <v>6944</v>
       </c>
       <c r="E167" t="n">
-        <v>180</v>
+        <v>221</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_05.czi</t>
+          <t>images\SCR_z-stack_01.czi</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>6</v>
       </c>
       <c r="C168" t="n">
-        <v>3218</v>
+        <v>2039</v>
       </c>
       <c r="D168" t="n">
-        <v>2733</v>
+        <v>6719</v>
       </c>
       <c r="E168" t="n">
-        <v>345</v>
+        <v>170</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_05.czi</t>
+          <t>images\SCR_z-stack_01.czi</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>7</v>
       </c>
       <c r="C169" t="n">
-        <v>2355</v>
+        <v>1996</v>
       </c>
       <c r="D169" t="n">
-        <v>2651</v>
+        <v>6836</v>
       </c>
       <c r="E169" t="n">
-        <v>587</v>
+        <v>173</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_05.czi</t>
+          <t>images\SCR_z-stack_01.czi</t>
         </is>
       </c>
       <c r="B170" t="n">
         <v>8</v>
       </c>
       <c r="C170" t="n">
-        <v>1164</v>
+        <v>1613</v>
       </c>
       <c r="D170" t="n">
-        <v>3588</v>
+        <v>6376</v>
       </c>
       <c r="E170" t="n">
-        <v>414</v>
+        <v>243</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_05.czi</t>
+          <t>images\SCR_z-stack_01.czi</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>9</v>
       </c>
       <c r="C171" t="n">
-        <v>1942</v>
+        <v>2109</v>
       </c>
       <c r="D171" t="n">
-        <v>9079</v>
+        <v>4919</v>
       </c>
       <c r="E171" t="n">
-        <v>1668</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_06.czi</t>
+          <t>images\SCR_z-stack_01.czi</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C172" t="n">
-        <v>4266</v>
+        <v>1870</v>
       </c>
       <c r="D172" t="n">
-        <v>4139</v>
+        <v>5252</v>
       </c>
       <c r="E172" t="n">
-        <v>261</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_06.czi</t>
+          <t>images\SCR_z-stack_02.czi</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C173" t="n">
-        <v>3917</v>
+        <v>2099</v>
       </c>
       <c r="D173" t="n">
-        <v>5273</v>
+        <v>5717</v>
       </c>
       <c r="E173" t="n">
-        <v>358</v>
+        <v>70</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_06.czi</t>
+          <t>images\SCR_z-stack_02.czi</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C174" t="n">
-        <v>3632</v>
+        <v>1312</v>
       </c>
       <c r="D174" t="n">
-        <v>4245</v>
+        <v>6070</v>
       </c>
       <c r="E174" t="n">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_06.czi</t>
+          <t>images\SCR_z-stack_02.czi</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C175" t="n">
-        <v>3092</v>
+        <v>2076</v>
       </c>
       <c r="D175" t="n">
-        <v>3688</v>
+        <v>6983</v>
       </c>
       <c r="E175" t="n">
-        <v>25</v>
+        <v>102</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_06.czi</t>
+          <t>images\SCR_z-stack_02.czi</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C176" t="n">
-        <v>3650</v>
+        <v>2601</v>
       </c>
       <c r="D176" t="n">
-        <v>4264</v>
+        <v>6086</v>
       </c>
       <c r="E176" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_06.czi</t>
+          <t>images\SCR_z-stack_02.czi</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C177" t="n">
-        <v>1962</v>
+        <v>2609</v>
       </c>
       <c r="D177" t="n">
-        <v>3271</v>
+        <v>6958</v>
       </c>
       <c r="E177" t="n">
-        <v>405</v>
+        <v>458</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_06.czi</t>
+          <t>images\SCR_z-stack_02.czi</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C178" t="n">
-        <v>2193</v>
+        <v>2592</v>
       </c>
       <c r="D178" t="n">
-        <v>9022</v>
+        <v>6106</v>
       </c>
       <c r="E178" t="n">
-        <v>1476</v>
+        <v>225</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_07.czi</t>
+          <t>images\SCR_z-stack_02.czi</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C179" t="n">
-        <v>3766</v>
+        <v>2545</v>
       </c>
       <c r="D179" t="n">
-        <v>5256</v>
+        <v>5094</v>
       </c>
       <c r="E179" t="n">
-        <v>353</v>
+        <v>379</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_07.czi</t>
+          <t>images\SCR_z-stack_02.czi</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C180" t="n">
-        <v>4084</v>
+        <v>2647</v>
       </c>
       <c r="D180" t="n">
-        <v>4578</v>
+        <v>5091</v>
       </c>
       <c r="E180" t="n">
-        <v>173</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_07.czi</t>
+          <t>images\SCR_z-stack_02.czi</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C181" t="n">
-        <v>3555</v>
+        <v>2729</v>
       </c>
       <c r="D181" t="n">
-        <v>4272</v>
+        <v>5042</v>
       </c>
       <c r="E181" t="n">
-        <v>100</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_07.czi</t>
+          <t>images\SCR_z-stack_02.czi</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C182" t="n">
-        <v>2950</v>
+        <v>2438</v>
       </c>
       <c r="D182" t="n">
-        <v>3503</v>
+        <v>3761</v>
       </c>
       <c r="E182" t="n">
-        <v>149</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_07.czi</t>
+          <t>images\SCR_z-stack_02.czi</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C183" t="n">
-        <v>1706</v>
+        <v>2400</v>
       </c>
       <c r="D183" t="n">
-        <v>3702</v>
+        <v>3538</v>
       </c>
       <c r="E183" t="n">
-        <v>374</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_07.czi</t>
+          <t>images\SCR_z-stack_03.czi</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C184" t="n">
-        <v>925</v>
+        <v>2070</v>
       </c>
       <c r="D184" t="n">
-        <v>4185</v>
+        <v>5304</v>
       </c>
       <c r="E184" t="n">
-        <v>567</v>
+        <v>250</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_07.czi</t>
+          <t>images\SCR_z-stack_03.czi</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C185" t="n">
-        <v>1820</v>
+        <v>1342</v>
       </c>
       <c r="D185" t="n">
-        <v>8590</v>
+        <v>4905</v>
       </c>
       <c r="E185" t="n">
-        <v>1599</v>
+        <v>112</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_08.czi</t>
+          <t>images\SCR_z-stack_03.czi</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>3</v>
       </c>
       <c r="C186" t="n">
-        <v>4090</v>
+        <v>2360</v>
       </c>
       <c r="D186" t="n">
-        <v>3826</v>
+        <v>6319</v>
       </c>
       <c r="E186" t="n">
-        <v>164</v>
+        <v>228</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_08.czi</t>
+          <t>images\SCR_z-stack_03.czi</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>4</v>
       </c>
       <c r="C187" t="n">
-        <v>4106</v>
+        <v>2430</v>
       </c>
       <c r="D187" t="n">
-        <v>4696</v>
+        <v>7097</v>
       </c>
       <c r="E187" t="n">
-        <v>232</v>
+        <v>274</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_08.czi</t>
+          <t>images\SCR_z-stack_03.czi</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>5</v>
       </c>
       <c r="C188" t="n">
-        <v>3989</v>
+        <v>2104</v>
       </c>
       <c r="D188" t="n">
-        <v>4665</v>
+        <v>6563</v>
       </c>
       <c r="E188" t="n">
-        <v>108</v>
+        <v>212</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_08.czi</t>
+          <t>images\SCR_z-stack_03.czi</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>6</v>
       </c>
       <c r="C189" t="n">
-        <v>3827</v>
+        <v>1803</v>
       </c>
       <c r="D189" t="n">
-        <v>5332</v>
+        <v>4647</v>
       </c>
       <c r="E189" t="n">
-        <v>60</v>
+        <v>443</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_08.czi</t>
+          <t>images\SCR_z-stack_03.czi</t>
         </is>
       </c>
       <c r="B190" t="n">
         <v>7</v>
       </c>
       <c r="C190" t="n">
-        <v>3932</v>
+        <v>1619</v>
       </c>
       <c r="D190" t="n">
-        <v>4542</v>
+        <v>4988</v>
       </c>
       <c r="E190" t="n">
-        <v>128</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_08.czi</t>
+          <t>images\SCR_z-stack_03.czi</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>8</v>
       </c>
       <c r="C191" t="n">
-        <v>3357</v>
+        <v>2023</v>
       </c>
       <c r="D191" t="n">
-        <v>5009</v>
+        <v>4731</v>
       </c>
       <c r="E191" t="n">
-        <v>243</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_08.czi</t>
+          <t>images\SCR_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>2584</v>
+        <v>1778</v>
       </c>
       <c r="D192" t="n">
-        <v>5188</v>
+        <v>6020</v>
       </c>
       <c r="E192" t="n">
-        <v>418</v>
+        <v>22</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_08.czi</t>
+          <t>images\SCR_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C193" t="n">
-        <v>2231</v>
+        <v>2128</v>
       </c>
       <c r="D193" t="n">
-        <v>4318</v>
+        <v>5227</v>
       </c>
       <c r="E193" t="n">
-        <v>753</v>
+        <v>97</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>images\SCR_z-stack_08.czi</t>
+          <t>images\SCR_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C194" t="n">
-        <v>1955</v>
+        <v>2614</v>
       </c>
       <c r="D194" t="n">
-        <v>4816</v>
+        <v>6849</v>
       </c>
       <c r="E194" t="n">
-        <v>1308</v>
+        <v>100</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_01.czi</t>
+          <t>images\SCR_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C195" t="n">
-        <v>4827</v>
+        <v>2452</v>
       </c>
       <c r="D195" t="n">
-        <v>4064</v>
+        <v>6972</v>
       </c>
       <c r="E195" t="n">
-        <v>177</v>
+        <v>193</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_01.czi</t>
+          <t>images\SCR_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C196" t="n">
-        <v>4843</v>
+        <v>2379</v>
       </c>
       <c r="D196" t="n">
-        <v>4858</v>
+        <v>6372</v>
       </c>
       <c r="E196" t="n">
-        <v>139</v>
+        <v>193</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_01.czi</t>
+          <t>images\SCR_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C197" t="n">
-        <v>4747</v>
+        <v>2055</v>
       </c>
       <c r="D197" t="n">
-        <v>4292</v>
+        <v>6454</v>
       </c>
       <c r="E197" t="n">
-        <v>123</v>
+        <v>229</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_01.czi</t>
+          <t>images\SCR_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C198" t="n">
-        <v>4886</v>
+        <v>2128</v>
       </c>
       <c r="D198" t="n">
-        <v>3380</v>
+        <v>6329</v>
       </c>
       <c r="E198" t="n">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_01.czi</t>
+          <t>images\SCR_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="n">
-        <v>3578</v>
+        <v>2078</v>
       </c>
       <c r="D199" t="n">
-        <v>1428</v>
+        <v>6321</v>
       </c>
       <c r="E199" t="n">
-        <v>177</v>
+        <v>131</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_01.czi</t>
+          <t>images\SCR_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="n">
-        <v>2081</v>
+        <v>1824</v>
       </c>
       <c r="D200" t="n">
-        <v>1351</v>
+        <v>5543</v>
       </c>
       <c r="E200" t="n">
-        <v>278</v>
+        <v>318</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_01.czi</t>
+          <t>images\SCR_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C201" t="n">
-        <v>1782</v>
+        <v>2028</v>
       </c>
       <c r="D201" t="n">
-        <v>1642</v>
+        <v>5892</v>
       </c>
       <c r="E201" t="n">
-        <v>248</v>
+        <v>569</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_01.czi</t>
+          <t>images\SCR_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C202" t="n">
-        <v>1527</v>
+        <v>2163</v>
       </c>
       <c r="D202" t="n">
-        <v>3776</v>
+        <v>6633</v>
       </c>
       <c r="E202" t="n">
-        <v>1412</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_02.czi</t>
+          <t>images\SCR_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C203" t="n">
-        <v>3875</v>
+        <v>1455</v>
       </c>
       <c r="D203" t="n">
-        <v>4698</v>
+        <v>7407</v>
       </c>
       <c r="E203" t="n">
-        <v>144</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_02.czi</t>
+          <t>images\SCR_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C204" t="n">
-        <v>4194</v>
+        <v>1402</v>
       </c>
       <c r="D204" t="n">
-        <v>4378</v>
+        <v>5878</v>
       </c>
       <c r="E204" t="n">
-        <v>104</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_02.czi</t>
+          <t>images\SCR_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C205" t="n">
-        <v>3768</v>
+        <v>1515</v>
       </c>
       <c r="D205" t="n">
-        <v>4147</v>
+        <v>5487</v>
       </c>
       <c r="E205" t="n">
-        <v>41</v>
+        <v>139</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_02.czi</t>
+          <t>images\SCR_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C206" t="n">
-        <v>3502</v>
+        <v>1924</v>
       </c>
       <c r="D206" t="n">
-        <v>3148</v>
+        <v>4624</v>
       </c>
       <c r="E206" t="n">
-        <v>159</v>
+        <v>54</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_02.czi</t>
+          <t>images\SCR_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C207" t="n">
-        <v>2874</v>
+        <v>3089</v>
       </c>
       <c r="D207" t="n">
-        <v>3618</v>
+        <v>6726</v>
       </c>
       <c r="E207" t="n">
-        <v>321</v>
+        <v>72</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_02.czi</t>
+          <t>images\SCR_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C208" t="n">
-        <v>3100</v>
+        <v>2512</v>
       </c>
       <c r="D208" t="n">
-        <v>4124</v>
+        <v>7231</v>
       </c>
       <c r="E208" t="n">
-        <v>275</v>
+        <v>80</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_02.czi</t>
+          <t>images\SCR_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C209" t="n">
-        <v>1775</v>
+        <v>1986</v>
       </c>
       <c r="D209" t="n">
-        <v>4342</v>
+        <v>6513</v>
       </c>
       <c r="E209" t="n">
-        <v>279</v>
+        <v>186</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_03.czi</t>
+          <t>images\SCR_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C210" t="n">
-        <v>4067</v>
+        <v>2067</v>
       </c>
       <c r="D210" t="n">
-        <v>3598</v>
+        <v>5844</v>
       </c>
       <c r="E210" t="n">
-        <v>248</v>
+        <v>538</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_03.czi</t>
+          <t>images\SCR_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C211" t="n">
-        <v>4546</v>
+        <v>1493</v>
       </c>
       <c r="D211" t="n">
-        <v>3894</v>
+        <v>4836</v>
       </c>
       <c r="E211" t="n">
-        <v>96</v>
+        <v>490</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_03.czi</t>
+          <t>images\SCR_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C212" t="n">
-        <v>4607</v>
+        <v>1621</v>
       </c>
       <c r="D212" t="n">
-        <v>4284</v>
+        <v>4272</v>
       </c>
       <c r="E212" t="n">
-        <v>54</v>
+        <v>684</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_03.czi</t>
+          <t>images\SCR_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C213" t="n">
-        <v>4724</v>
+        <v>1926</v>
       </c>
       <c r="D213" t="n">
-        <v>4380</v>
+        <v>6399</v>
       </c>
       <c r="E213" t="n">
-        <v>120</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_03.czi</t>
+          <t>images\SCR_z-stack_06.czi</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C214" t="n">
-        <v>3426</v>
+        <v>2169</v>
       </c>
       <c r="D214" t="n">
-        <v>3545</v>
+        <v>6513</v>
       </c>
       <c r="E214" t="n">
-        <v>141</v>
+        <v>167</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_03.czi</t>
+          <t>images\SCR_z-stack_06.czi</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C215" t="n">
-        <v>1564</v>
+        <v>1965</v>
       </c>
       <c r="D215" t="n">
-        <v>2092</v>
+        <v>5546</v>
       </c>
       <c r="E215" t="n">
-        <v>87</v>
+        <v>37</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_04.czi</t>
+          <t>images\SCR_z-stack_06.czi</t>
         </is>
       </c>
       <c r="B216" t="n">
         <v>3</v>
       </c>
       <c r="C216" t="n">
-        <v>4075</v>
+        <v>3085</v>
       </c>
       <c r="D216" t="n">
-        <v>3726</v>
+        <v>6929</v>
       </c>
       <c r="E216" t="n">
-        <v>374</v>
+        <v>209</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_04.czi</t>
+          <t>images\SCR_z-stack_06.czi</t>
         </is>
       </c>
       <c r="B217" t="n">
         <v>4</v>
       </c>
       <c r="C217" t="n">
-        <v>4761</v>
+        <v>2782</v>
       </c>
       <c r="D217" t="n">
-        <v>4122</v>
+        <v>7736</v>
       </c>
       <c r="E217" t="n">
-        <v>183</v>
+        <v>356</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_04.czi</t>
+          <t>images\SCR_z-stack_06.czi</t>
         </is>
       </c>
       <c r="B218" t="n">
         <v>5</v>
       </c>
       <c r="C218" t="n">
-        <v>4842</v>
+        <v>2667</v>
       </c>
       <c r="D218" t="n">
-        <v>4031</v>
+        <v>6977</v>
       </c>
       <c r="E218" t="n">
-        <v>104</v>
+        <v>188</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_04.czi</t>
+          <t>images\SCR_z-stack_06.czi</t>
         </is>
       </c>
       <c r="B219" t="n">
         <v>6</v>
       </c>
       <c r="C219" t="n">
-        <v>4242</v>
+        <v>2568</v>
       </c>
       <c r="D219" t="n">
-        <v>3911</v>
+        <v>6929</v>
       </c>
       <c r="E219" t="n">
-        <v>82</v>
+        <v>118</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_04.czi</t>
+          <t>images\SCR_z-stack_06.czi</t>
         </is>
       </c>
       <c r="B220" t="n">
         <v>7</v>
       </c>
       <c r="C220" t="n">
-        <v>2959</v>
+        <v>2152</v>
       </c>
       <c r="D220" t="n">
-        <v>3444</v>
+        <v>6161</v>
       </c>
       <c r="E220" t="n">
-        <v>47</v>
+        <v>125</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_04.czi</t>
+          <t>images\SCR_z-stack_06.czi</t>
         </is>
       </c>
       <c r="B221" t="n">
         <v>8</v>
       </c>
       <c r="C221" t="n">
-        <v>1735</v>
+        <v>1641</v>
       </c>
       <c r="D221" t="n">
-        <v>1468</v>
+        <v>3569</v>
       </c>
       <c r="E221" t="n">
-        <v>142</v>
+        <v>342</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_04.czi</t>
+          <t>images\SCR_z-stack_06.czi</t>
         </is>
       </c>
       <c r="B222" t="n">
         <v>9</v>
       </c>
       <c r="C222" t="n">
-        <v>1738</v>
+        <v>1937</v>
       </c>
       <c r="D222" t="n">
-        <v>7933</v>
+        <v>5315</v>
       </c>
       <c r="E222" t="n">
-        <v>1721</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_05.czi</t>
+          <t>images\SCR_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C223" t="n">
-        <v>4697</v>
+        <v>1482</v>
       </c>
       <c r="D223" t="n">
-        <v>4184</v>
+        <v>6839</v>
       </c>
       <c r="E223" t="n">
-        <v>309</v>
+        <v>191</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_05.czi</t>
+          <t>images\SCR_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C224" t="n">
-        <v>3840</v>
+        <v>2035</v>
       </c>
       <c r="D224" t="n">
-        <v>5060</v>
+        <v>6612</v>
       </c>
       <c r="E224" t="n">
-        <v>149</v>
+        <v>102</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_05.czi</t>
+          <t>images\SCR_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C225" t="n">
-        <v>3759</v>
+        <v>2274</v>
       </c>
       <c r="D225" t="n">
-        <v>4055</v>
+        <v>7517</v>
       </c>
       <c r="E225" t="n">
-        <v>133</v>
+        <v>284</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_05.czi</t>
+          <t>images\SCR_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C226" t="n">
-        <v>3331</v>
+        <v>2364</v>
       </c>
       <c r="D226" t="n">
-        <v>3645</v>
+        <v>6876</v>
       </c>
       <c r="E226" t="n">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_05.czi</t>
+          <t>images\SCR_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C227" t="n">
-        <v>2610</v>
+        <v>2330</v>
       </c>
       <c r="D227" t="n">
-        <v>2666</v>
+        <v>6656</v>
       </c>
       <c r="E227" t="n">
-        <v>284</v>
+        <v>81</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_05.czi</t>
+          <t>images\SCR_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C228" t="n">
-        <v>1689</v>
+        <v>1827</v>
       </c>
       <c r="D228" t="n">
-        <v>2847</v>
+        <v>6139</v>
       </c>
       <c r="E228" t="n">
-        <v>1261</v>
+        <v>157</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_05.czi</t>
+          <t>images\SCR_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C229" t="n">
-        <v>1635</v>
+        <v>1487</v>
       </c>
       <c r="D229" t="n">
-        <v>3500</v>
+        <v>5533</v>
       </c>
       <c r="E229" t="n">
-        <v>1614</v>
+        <v>436</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_06.czi</t>
+          <t>images\SCR_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C230" t="n">
-        <v>3742</v>
+        <v>1181</v>
       </c>
       <c r="D230" t="n">
-        <v>3277</v>
+        <v>4829</v>
       </c>
       <c r="E230" t="n">
-        <v>207</v>
+        <v>737</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_06.czi</t>
+          <t>images\SCR_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C231" t="n">
-        <v>4060</v>
+        <v>1871</v>
       </c>
       <c r="D231" t="n">
-        <v>4694</v>
+        <v>6321</v>
       </c>
       <c r="E231" t="n">
-        <v>270</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_06.czi</t>
+          <t>images\SCR_z-stack_08.czi</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C232" t="n">
-        <v>3651</v>
+        <v>1304</v>
       </c>
       <c r="D232" t="n">
-        <v>4502</v>
+        <v>5421</v>
       </c>
       <c r="E232" t="n">
-        <v>153</v>
+        <v>67</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_06.czi</t>
+          <t>images\SCR_z-stack_08.czi</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C233" t="n">
-        <v>4167</v>
+        <v>1825</v>
       </c>
       <c r="D233" t="n">
-        <v>3838</v>
+        <v>4863</v>
       </c>
       <c r="E233" t="n">
-        <v>150</v>
+        <v>103</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_06.czi</t>
+          <t>images\SCR_z-stack_08.czi</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C234" t="n">
-        <v>3763</v>
+        <v>2354</v>
       </c>
       <c r="D234" t="n">
-        <v>5181</v>
+        <v>6841</v>
       </c>
       <c r="E234" t="n">
-        <v>271</v>
+        <v>135</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_06.czi</t>
+          <t>images\SCR_z-stack_08.czi</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C235" t="n">
-        <v>1673</v>
+        <v>2459</v>
       </c>
       <c r="D235" t="n">
-        <v>1664</v>
+        <v>7116</v>
       </c>
       <c r="E235" t="n">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_06.czi</t>
+          <t>images\SCR_z-stack_08.czi</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C236" t="n">
-        <v>2271</v>
+        <v>2460</v>
       </c>
       <c r="D236" t="n">
-        <v>2218</v>
+        <v>7280</v>
       </c>
       <c r="E236" t="n">
-        <v>604</v>
+        <v>99</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_07.czi</t>
+          <t>images\SCR_z-stack_08.czi</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C237" t="n">
-        <v>3873</v>
+        <v>2226</v>
       </c>
       <c r="D237" t="n">
-        <v>4311</v>
+        <v>7247</v>
       </c>
       <c r="E237" t="n">
-        <v>291</v>
+        <v>72</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_07.czi</t>
+          <t>images\SCR_z-stack_08.czi</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C238" t="n">
-        <v>3778</v>
+        <v>2194</v>
       </c>
       <c r="D238" t="n">
-        <v>4792</v>
+        <v>6728</v>
       </c>
       <c r="E238" t="n">
-        <v>68</v>
+        <v>145</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_07.czi</t>
+          <t>images\SCR_z-stack_08.czi</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C239" t="n">
-        <v>3909</v>
+        <v>2036</v>
       </c>
       <c r="D239" t="n">
-        <v>4180</v>
+        <v>6936</v>
       </c>
       <c r="E239" t="n">
-        <v>120</v>
+        <v>224</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_07.czi</t>
+          <t>images\SCR_z-stack_08.czi</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C240" t="n">
-        <v>4195</v>
+        <v>1758</v>
       </c>
       <c r="D240" t="n">
-        <v>3290</v>
+        <v>6744</v>
       </c>
       <c r="E240" t="n">
-        <v>337</v>
+        <v>380</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_07.czi</t>
+          <t>images\SCR_z-stack_08.czi</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C241" t="n">
-        <v>4035</v>
+        <v>2143</v>
       </c>
       <c r="D241" t="n">
-        <v>3502</v>
+        <v>6193</v>
       </c>
       <c r="E241" t="n">
-        <v>850</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_07.czi</t>
+          <t>images\SCR_z-stack_08.czi</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C242" t="n">
-        <v>3210</v>
+        <v>2068</v>
       </c>
       <c r="D242" t="n">
-        <v>4030</v>
+        <v>6359</v>
       </c>
       <c r="E242" t="n">
-        <v>520</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_07.czi</t>
+          <t>images\STK39_z-stack_01.czi</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C243" t="n">
-        <v>1595</v>
+        <v>2877</v>
       </c>
       <c r="D243" t="n">
-        <v>4859</v>
+        <v>7046</v>
       </c>
       <c r="E243" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_07.czi</t>
+          <t>images\STK39_z-stack_01.czi</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C244" t="n">
-        <v>1259</v>
+        <v>2149</v>
       </c>
       <c r="D244" t="n">
-        <v>9056</v>
+        <v>5293</v>
       </c>
       <c r="E244" t="n">
-        <v>842</v>
+        <v>66</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_08.czi</t>
+          <t>images\STK39_z-stack_01.czi</t>
         </is>
       </c>
       <c r="B245" t="n">
         <v>3</v>
       </c>
       <c r="C245" t="n">
-        <v>4654</v>
+        <v>2937</v>
       </c>
       <c r="D245" t="n">
-        <v>6440</v>
+        <v>6922</v>
       </c>
       <c r="E245" t="n">
-        <v>237</v>
+        <v>172</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_08.czi</t>
+          <t>images\STK39_z-stack_01.czi</t>
         </is>
       </c>
       <c r="B246" t="n">
         <v>4</v>
       </c>
       <c r="C246" t="n">
-        <v>4450</v>
+        <v>3292</v>
       </c>
       <c r="D246" t="n">
-        <v>4876</v>
+        <v>7261</v>
       </c>
       <c r="E246" t="n">
-        <v>431</v>
+        <v>172</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_08.czi</t>
+          <t>images\STK39_z-stack_01.czi</t>
         </is>
       </c>
       <c r="B247" t="n">
         <v>5</v>
       </c>
       <c r="C247" t="n">
-        <v>3545</v>
+        <v>3271</v>
       </c>
       <c r="D247" t="n">
-        <v>2915</v>
+        <v>7300</v>
       </c>
       <c r="E247" t="n">
-        <v>342</v>
+        <v>153</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_08.czi</t>
+          <t>images\STK39_z-stack_01.czi</t>
         </is>
       </c>
       <c r="B248" t="n">
         <v>6</v>
       </c>
       <c r="C248" t="n">
-        <v>1545</v>
+        <v>3145</v>
       </c>
       <c r="D248" t="n">
-        <v>1499</v>
+        <v>6770</v>
       </c>
       <c r="E248" t="n">
-        <v>374</v>
+        <v>170</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>images\STK39_z-stack_08.czi</t>
+          <t>images\STK39_z-stack_01.czi</t>
         </is>
       </c>
       <c r="B249" t="n">
         <v>7</v>
       </c>
       <c r="C249" t="n">
-        <v>1471</v>
+        <v>2764</v>
       </c>
       <c r="D249" t="n">
-        <v>7773</v>
+        <v>4367</v>
       </c>
       <c r="E249" t="n">
-        <v>1397</v>
+        <v>528</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_01.czi</t>
+          <t>images\STK39_z-stack_01.czi</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C250" t="n">
-        <v>2740</v>
+        <v>1789</v>
       </c>
       <c r="D250" t="n">
-        <v>5501</v>
+        <v>3101</v>
       </c>
       <c r="E250" t="n">
-        <v>82</v>
+        <v>829</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_01.czi</t>
+          <t>images\STK39_z-stack_01.czi</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C251" t="n">
-        <v>3029</v>
+        <v>1744</v>
       </c>
       <c r="D251" t="n">
-        <v>4432</v>
+        <v>3702</v>
       </c>
       <c r="E251" t="n">
-        <v>169</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_01.czi</t>
+          <t>images\STK39_z-stack_01.czi</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C252" t="n">
-        <v>2842</v>
+        <v>1742</v>
       </c>
       <c r="D252" t="n">
-        <v>4417</v>
+        <v>4234</v>
       </c>
       <c r="E252" t="n">
-        <v>192</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_01.czi</t>
+          <t>images\STK39_z-stack_02.czi</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C253" t="n">
-        <v>2530</v>
+        <v>1189</v>
       </c>
       <c r="D253" t="n">
-        <v>4014</v>
+        <v>5329</v>
       </c>
       <c r="E253" t="n">
-        <v>263</v>
+        <v>114</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_01.czi</t>
+          <t>images\STK39_z-stack_02.czi</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C254" t="n">
-        <v>1435</v>
+        <v>2093</v>
       </c>
       <c r="D254" t="n">
-        <v>4455</v>
+        <v>6769</v>
       </c>
       <c r="E254" t="n">
-        <v>70</v>
+        <v>166</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_01.czi</t>
+          <t>images\STK39_z-stack_02.czi</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C255" t="n">
-        <v>1498</v>
+        <v>2370</v>
       </c>
       <c r="D255" t="n">
-        <v>4230</v>
+        <v>7160</v>
       </c>
       <c r="E255" t="n">
-        <v>623</v>
+        <v>117</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_01.czi</t>
+          <t>images\STK39_z-stack_02.czi</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C256" t="n">
-        <v>1950</v>
+        <v>2499</v>
       </c>
       <c r="D256" t="n">
-        <v>7665</v>
+        <v>6861</v>
       </c>
       <c r="E256" t="n">
-        <v>1034</v>
+        <v>99</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_02.czi</t>
+          <t>images\STK39_z-stack_02.czi</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C257" t="n">
-        <v>2947</v>
+        <v>1996</v>
       </c>
       <c r="D257" t="n">
-        <v>5790</v>
+        <v>7110</v>
       </c>
       <c r="E257" t="n">
-        <v>512</v>
+        <v>38</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_02.czi</t>
+          <t>images\STK39_z-stack_02.czi</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C258" t="n">
-        <v>3428</v>
+        <v>2217</v>
       </c>
       <c r="D258" t="n">
-        <v>6860</v>
+        <v>5951</v>
       </c>
       <c r="E258" t="n">
-        <v>557</v>
+        <v>142</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_02.czi</t>
+          <t>images\STK39_z-stack_02.czi</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C259" t="n">
-        <v>3645</v>
+        <v>1972</v>
       </c>
       <c r="D259" t="n">
-        <v>6311</v>
+        <v>6383</v>
       </c>
       <c r="E259" t="n">
-        <v>775</v>
+        <v>269</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_02.czi</t>
+          <t>images\STK39_z-stack_02.czi</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C260" t="n">
-        <v>3485</v>
+        <v>2091</v>
       </c>
       <c r="D260" t="n">
-        <v>6384</v>
+        <v>6448</v>
       </c>
       <c r="E260" t="n">
-        <v>630</v>
+        <v>374</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_02.czi</t>
+          <t>images\STK39_z-stack_02.czi</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C261" t="n">
-        <v>2793</v>
+        <v>1652</v>
       </c>
       <c r="D261" t="n">
-        <v>4925</v>
+        <v>5803</v>
       </c>
       <c r="E261" t="n">
-        <v>550</v>
+        <v>440</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_02.czi</t>
+          <t>images\STK39_z-stack_03.czi</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C262" t="n">
-        <v>2215</v>
+        <v>1810</v>
       </c>
       <c r="D262" t="n">
-        <v>3776</v>
+        <v>5991</v>
       </c>
       <c r="E262" t="n">
-        <v>755</v>
+        <v>25</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_02.czi</t>
+          <t>images\STK39_z-stack_03.czi</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C263" t="n">
-        <v>1812</v>
+        <v>1868</v>
       </c>
       <c r="D263" t="n">
-        <v>2645</v>
+        <v>3638</v>
       </c>
       <c r="E263" t="n">
-        <v>692</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_02.czi</t>
+          <t>images\STK39_z-stack_03.czi</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C264" t="n">
-        <v>1013</v>
+        <v>2663</v>
       </c>
       <c r="D264" t="n">
-        <v>5754</v>
+        <v>6535</v>
       </c>
       <c r="E264" t="n">
-        <v>843</v>
+        <v>149</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_03.czi</t>
+          <t>images\STK39_z-stack_03.czi</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C265" t="n">
-        <v>3557</v>
+        <v>2756</v>
       </c>
       <c r="D265" t="n">
-        <v>4371</v>
+        <v>7009</v>
       </c>
       <c r="E265" t="n">
-        <v>545</v>
+        <v>149</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_03.czi</t>
+          <t>images\STK39_z-stack_03.czi</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C266" t="n">
-        <v>3682</v>
+        <v>2864</v>
       </c>
       <c r="D266" t="n">
-        <v>5758</v>
+        <v>7057</v>
       </c>
       <c r="E266" t="n">
-        <v>156</v>
+        <v>96</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_03.czi</t>
+          <t>images\STK39_z-stack_03.czi</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C267" t="n">
-        <v>3449</v>
+        <v>2950</v>
       </c>
       <c r="D267" t="n">
-        <v>4217</v>
+        <v>7346</v>
       </c>
       <c r="E267" t="n">
-        <v>28</v>
+        <v>114</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_03.czi</t>
+          <t>images\STK39_z-stack_03.czi</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C268" t="n">
-        <v>2186</v>
+        <v>2220</v>
       </c>
       <c r="D268" t="n">
-        <v>3752</v>
+        <v>6265</v>
       </c>
       <c r="E268" t="n">
-        <v>22</v>
+        <v>137</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_03.czi</t>
+          <t>images\STK39_z-stack_03.czi</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C269" t="n">
-        <v>1495</v>
+        <v>1884</v>
       </c>
       <c r="D269" t="n">
-        <v>2822</v>
+        <v>3484</v>
       </c>
       <c r="E269" t="n">
-        <v>161</v>
+        <v>236</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_03.czi</t>
+          <t>images\STK39_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C270" t="n">
-        <v>2110</v>
+        <v>1917</v>
       </c>
       <c r="D270" t="n">
-        <v>2455</v>
+        <v>6746</v>
       </c>
       <c r="E270" t="n">
-        <v>710</v>
+        <v>116</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_03.czi</t>
+          <t>images\STK39_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C271" t="n">
-        <v>1042</v>
+        <v>1537</v>
       </c>
       <c r="D271" t="n">
-        <v>1423</v>
+        <v>4740</v>
       </c>
       <c r="E271" t="n">
-        <v>366</v>
+        <v>44</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_04.czi</t>
+          <t>images\STK39_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B272" t="n">
         <v>3</v>
       </c>
       <c r="C272" t="n">
-        <v>2585</v>
+        <v>2524</v>
       </c>
       <c r="D272" t="n">
-        <v>4887</v>
+        <v>6904</v>
       </c>
       <c r="E272" t="n">
-        <v>555</v>
+        <v>349</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_04.czi</t>
+          <t>images\STK39_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B273" t="n">
         <v>4</v>
       </c>
       <c r="C273" t="n">
-        <v>2357</v>
+        <v>2838</v>
       </c>
       <c r="D273" t="n">
-        <v>6316</v>
+        <v>6658</v>
       </c>
       <c r="E273" t="n">
-        <v>309</v>
+        <v>122</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_04.czi</t>
+          <t>images\STK39_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B274" t="n">
         <v>5</v>
       </c>
       <c r="C274" t="n">
-        <v>2605</v>
+        <v>2816</v>
       </c>
       <c r="D274" t="n">
-        <v>4412</v>
+        <v>6829</v>
       </c>
       <c r="E274" t="n">
-        <v>206</v>
+        <v>101</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_04.czi</t>
+          <t>images\STK39_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B275" t="n">
         <v>6</v>
       </c>
       <c r="C275" t="n">
-        <v>2294</v>
+        <v>2559</v>
       </c>
       <c r="D275" t="n">
-        <v>2305</v>
+        <v>6672</v>
       </c>
       <c r="E275" t="n">
-        <v>218</v>
+        <v>79</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_04.czi</t>
+          <t>images\STK39_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B276" t="n">
         <v>7</v>
       </c>
       <c r="C276" t="n">
-        <v>1917</v>
+        <v>2130</v>
       </c>
       <c r="D276" t="n">
-        <v>1290</v>
+        <v>6425</v>
       </c>
       <c r="E276" t="n">
-        <v>179</v>
+        <v>28</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_04.czi</t>
+          <t>images\STK39_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B277" t="n">
         <v>8</v>
       </c>
       <c r="C277" t="n">
-        <v>1994</v>
+        <v>1829</v>
       </c>
       <c r="D277" t="n">
-        <v>7304</v>
+        <v>4469</v>
       </c>
       <c r="E277" t="n">
-        <v>1464</v>
+        <v>611</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_05.czi</t>
+          <t>images\STK39_z-stack_04.czi</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C278" t="n">
-        <v>2934</v>
+        <v>2206</v>
       </c>
       <c r="D278" t="n">
-        <v>4942</v>
+        <v>5894</v>
       </c>
       <c r="E278" t="n">
-        <v>890</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_05.czi</t>
+          <t>images\STK39_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C279" t="n">
-        <v>3532</v>
+        <v>1859</v>
       </c>
       <c r="D279" t="n">
-        <v>5746</v>
+        <v>6066</v>
       </c>
       <c r="E279" t="n">
-        <v>323</v>
+        <v>441</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_05.czi</t>
+          <t>images\STK39_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C280" t="n">
-        <v>3839</v>
+        <v>1624</v>
       </c>
       <c r="D280" t="n">
-        <v>5145</v>
+        <v>4977</v>
       </c>
       <c r="E280" t="n">
-        <v>256</v>
+        <v>223</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_05.czi</t>
+          <t>images\STK39_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C281" t="n">
-        <v>3614</v>
+        <v>3101</v>
       </c>
       <c r="D281" t="n">
-        <v>4907</v>
+        <v>6877</v>
       </c>
       <c r="E281" t="n">
-        <v>214</v>
+        <v>280</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_05.czi</t>
+          <t>images\STK39_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C282" t="n">
-        <v>3131</v>
+        <v>2548</v>
       </c>
       <c r="D282" t="n">
-        <v>4949</v>
+        <v>7199</v>
       </c>
       <c r="E282" t="n">
-        <v>62</v>
+        <v>138</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_05.czi</t>
+          <t>images\STK39_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C283" t="n">
-        <v>2123</v>
+        <v>2390</v>
       </c>
       <c r="D283" t="n">
-        <v>3431</v>
+        <v>6771</v>
       </c>
       <c r="E283" t="n">
-        <v>267</v>
+        <v>68</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_05.czi</t>
+          <t>images\STK39_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C284" t="n">
-        <v>2292</v>
+        <v>2317</v>
       </c>
       <c r="D284" t="n">
-        <v>2570</v>
+        <v>6734</v>
       </c>
       <c r="E284" t="n">
-        <v>777</v>
+        <v>87</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_05.czi</t>
+          <t>images\STK39_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C285" t="n">
-        <v>2072</v>
+        <v>2409</v>
       </c>
       <c r="D285" t="n">
-        <v>3141</v>
+        <v>5349</v>
       </c>
       <c r="E285" t="n">
-        <v>834</v>
+        <v>768</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_06.czi</t>
+          <t>images\STK39_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C286" t="n">
-        <v>2327</v>
+        <v>1879</v>
       </c>
       <c r="D286" t="n">
-        <v>4225</v>
+        <v>4214</v>
       </c>
       <c r="E286" t="n">
-        <v>561</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_06.czi</t>
+          <t>images\STK39_z-stack_05.czi</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C287" t="n">
-        <v>2574</v>
+        <v>2098</v>
       </c>
       <c r="D287" t="n">
-        <v>4512</v>
+        <v>3939</v>
       </c>
       <c r="E287" t="n">
-        <v>413</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_06.czi</t>
+          <t>images\STK39_z-stack_06.czi</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C288" t="n">
-        <v>2931</v>
+        <v>1691</v>
       </c>
       <c r="D288" t="n">
-        <v>4868</v>
+        <v>6121</v>
       </c>
       <c r="E288" t="n">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_06.czi</t>
+          <t>images\STK39_z-stack_06.czi</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C289" t="n">
-        <v>2969</v>
+        <v>1468</v>
       </c>
       <c r="D289" t="n">
-        <v>4112</v>
+        <v>5646</v>
       </c>
       <c r="E289" t="n">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_06.czi</t>
+          <t>images\STK39_z-stack_06.czi</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C290" t="n">
-        <v>2879</v>
+        <v>2404</v>
       </c>
       <c r="D290" t="n">
-        <v>3789</v>
+        <v>5764</v>
       </c>
       <c r="E290" t="n">
-        <v>457</v>
+        <v>155</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_06.czi</t>
+          <t>images\STK39_z-stack_06.czi</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C291" t="n">
-        <v>3294</v>
+        <v>2382</v>
       </c>
       <c r="D291" t="n">
-        <v>4142</v>
+        <v>6795</v>
       </c>
       <c r="E291" t="n">
-        <v>450</v>
+        <v>223</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_06.czi</t>
+          <t>images\STK39_z-stack_06.czi</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C292" t="n">
-        <v>2716</v>
+        <v>2426</v>
       </c>
       <c r="D292" t="n">
-        <v>4259</v>
+        <v>6528</v>
       </c>
       <c r="E292" t="n">
-        <v>307</v>
+        <v>154</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_06.czi</t>
+          <t>images\STK39_z-stack_06.czi</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C293" t="n">
-        <v>1803</v>
+        <v>2639</v>
       </c>
       <c r="D293" t="n">
-        <v>3843</v>
+        <v>6702</v>
       </c>
       <c r="E293" t="n">
-        <v>364</v>
+        <v>126</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_06.czi</t>
+          <t>images\STK39_z-stack_06.czi</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C294" t="n">
-        <v>2289</v>
+        <v>2420</v>
       </c>
       <c r="D294" t="n">
-        <v>3726</v>
+        <v>7028</v>
       </c>
       <c r="E294" t="n">
-        <v>1316</v>
+        <v>191</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_06.czi</t>
+          <t>images\STK39_z-stack_06.czi</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C295" t="n">
-        <v>2664</v>
+        <v>1791</v>
       </c>
       <c r="D295" t="n">
-        <v>5956</v>
+        <v>3696</v>
       </c>
       <c r="E295" t="n">
-        <v>2184</v>
+        <v>363</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_07.czi</t>
+          <t>images\STK39_z-stack_06.czi</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C296" t="n">
-        <v>3865</v>
+        <v>2606</v>
       </c>
       <c r="D296" t="n">
-        <v>5367</v>
+        <v>2695</v>
       </c>
       <c r="E296" t="n">
-        <v>104</v>
+        <v>759</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_07.czi</t>
+          <t>images\STK39_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C297" t="n">
-        <v>4307</v>
+        <v>2011</v>
       </c>
       <c r="D297" t="n">
-        <v>6023</v>
+        <v>6131</v>
       </c>
       <c r="E297" t="n">
-        <v>107</v>
+        <v>27</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_07.czi</t>
+          <t>images\STK39_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C298" t="n">
-        <v>4142</v>
+        <v>2733</v>
       </c>
       <c r="D298" t="n">
-        <v>5327</v>
+        <v>5722</v>
       </c>
       <c r="E298" t="n">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_07.czi</t>
+          <t>images\STK39_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C299" t="n">
-        <v>3482</v>
+        <v>2367</v>
       </c>
       <c r="D299" t="n">
-        <v>4644</v>
+        <v>6918</v>
       </c>
       <c r="E299" t="n">
-        <v>69</v>
+        <v>254</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_07.czi</t>
+          <t>images\STK39_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C300" t="n">
-        <v>2701</v>
+        <v>2460</v>
       </c>
       <c r="D300" t="n">
-        <v>3521</v>
+        <v>7206</v>
       </c>
       <c r="E300" t="n">
-        <v>110</v>
+        <v>72</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_07.czi</t>
+          <t>images\STK39_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C301" t="n">
-        <v>2275</v>
+        <v>2540</v>
       </c>
       <c r="D301" t="n">
-        <v>2528</v>
+        <v>6797</v>
       </c>
       <c r="E301" t="n">
-        <v>806</v>
+        <v>105</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_07.czi</t>
+          <t>images\STK39_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C302" t="n">
-        <v>1346</v>
+        <v>2569</v>
       </c>
       <c r="D302" t="n">
-        <v>1603</v>
+        <v>6213</v>
       </c>
       <c r="E302" t="n">
-        <v>804</v>
+        <v>241</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_07.czi</t>
+          <t>images\STK39_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C303" t="n">
-        <v>1238</v>
+        <v>2484</v>
       </c>
       <c r="D303" t="n">
-        <v>1275</v>
+        <v>5704</v>
       </c>
       <c r="E303" t="n">
-        <v>782</v>
+        <v>743</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_08.czi</t>
+          <t>images\STK39_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C304" t="n">
-        <v>2583</v>
+        <v>2338</v>
       </c>
       <c r="D304" t="n">
-        <v>4248</v>
+        <v>5935</v>
       </c>
       <c r="E304" t="n">
-        <v>502</v>
+        <v>651</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_08.czi</t>
+          <t>images\STK39_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C305" t="n">
-        <v>2991</v>
+        <v>1717</v>
       </c>
       <c r="D305" t="n">
-        <v>3954</v>
+        <v>5360</v>
       </c>
       <c r="E305" t="n">
-        <v>419</v>
+        <v>476</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_08.czi</t>
+          <t>images\STK39_z-stack_07.czi</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C306" t="n">
-        <v>3220</v>
+        <v>1715</v>
       </c>
       <c r="D306" t="n">
-        <v>4910</v>
+        <v>7020</v>
       </c>
       <c r="E306" t="n">
-        <v>296</v>
+        <v>741</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_08.czi</t>
+          <t>images\STK39_z-stack_08.czi</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C307" t="n">
-        <v>2951</v>
+        <v>1897</v>
       </c>
       <c r="D307" t="n">
-        <v>2354</v>
+        <v>6117</v>
       </c>
       <c r="E307" t="n">
-        <v>334</v>
+        <v>19</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>images\UT_z-stack_08.czi</t>
+          <t>images\STK39_z-stack_08.czi</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C308" t="n">
-        <v>1767</v>
+        <v>2823</v>
       </c>
       <c r="D308" t="n">
-        <v>2699</v>
+        <v>7248</v>
       </c>
       <c r="E308" t="n">
-        <v>428</v>
+        <v>170</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
+          <t>images\STK39_z-stack_08.czi</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>3</v>
+      </c>
+      <c r="C309" t="n">
+        <v>2787</v>
+      </c>
+      <c r="D309" t="n">
+        <v>7545</v>
+      </c>
+      <c r="E309" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>images\STK39_z-stack_08.czi</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>4</v>
+      </c>
+      <c r="C310" t="n">
+        <v>2645</v>
+      </c>
+      <c r="D310" t="n">
+        <v>7167</v>
+      </c>
+      <c r="E310" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>images\STK39_z-stack_08.czi</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>5</v>
+      </c>
+      <c r="C311" t="n">
+        <v>2456</v>
+      </c>
+      <c r="D311" t="n">
+        <v>5090</v>
+      </c>
+      <c r="E311" t="n">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>images\STK39_z-stack_08.czi</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>6</v>
+      </c>
+      <c r="C312" t="n">
+        <v>1544</v>
+      </c>
+      <c r="D312" t="n">
+        <v>4523</v>
+      </c>
+      <c r="E312" t="n">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>images\STK39_z-stack_08.czi</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>7</v>
+      </c>
+      <c r="C313" t="n">
+        <v>1847</v>
+      </c>
+      <c r="D313" t="n">
+        <v>5603</v>
+      </c>
+      <c r="E313" t="n">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_01.czi</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>1</v>
+      </c>
+      <c r="C314" t="n">
+        <v>1708</v>
+      </c>
+      <c r="D314" t="n">
+        <v>5145</v>
+      </c>
+      <c r="E314" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_01.czi</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>2</v>
+      </c>
+      <c r="C315" t="n">
+        <v>2031</v>
+      </c>
+      <c r="D315" t="n">
+        <v>5177</v>
+      </c>
+      <c r="E315" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_01.czi</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>3</v>
+      </c>
+      <c r="C316" t="n">
+        <v>2029</v>
+      </c>
+      <c r="D316" t="n">
+        <v>7140</v>
+      </c>
+      <c r="E316" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_01.czi</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>4</v>
+      </c>
+      <c r="C317" t="n">
+        <v>2144</v>
+      </c>
+      <c r="D317" t="n">
+        <v>6731</v>
+      </c>
+      <c r="E317" t="n">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_01.czi</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>5</v>
+      </c>
+      <c r="C318" t="n">
+        <v>2210</v>
+      </c>
+      <c r="D318" t="n">
+        <v>6860</v>
+      </c>
+      <c r="E318" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_01.czi</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>6</v>
+      </c>
+      <c r="C319" t="n">
+        <v>2156</v>
+      </c>
+      <c r="D319" t="n">
+        <v>6004</v>
+      </c>
+      <c r="E319" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_01.czi</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>7</v>
+      </c>
+      <c r="C320" t="n">
+        <v>1440</v>
+      </c>
+      <c r="D320" t="n">
+        <v>4812</v>
+      </c>
+      <c r="E320" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_01.czi</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>8</v>
+      </c>
+      <c r="C321" t="n">
+        <v>1819</v>
+      </c>
+      <c r="D321" t="n">
+        <v>4717</v>
+      </c>
+      <c r="E321" t="n">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_01.czi</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>9</v>
+      </c>
+      <c r="C322" t="n">
+        <v>1808</v>
+      </c>
+      <c r="D322" t="n">
+        <v>5741</v>
+      </c>
+      <c r="E322" t="n">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_02.czi</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>1</v>
+      </c>
+      <c r="C323" t="n">
+        <v>1224</v>
+      </c>
+      <c r="D323" t="n">
+        <v>7058</v>
+      </c>
+      <c r="E323" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_02.czi</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>2</v>
+      </c>
+      <c r="C324" t="n">
+        <v>1553</v>
+      </c>
+      <c r="D324" t="n">
+        <v>5311</v>
+      </c>
+      <c r="E324" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_02.czi</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>3</v>
+      </c>
+      <c r="C325" t="n">
+        <v>1949</v>
+      </c>
+      <c r="D325" t="n">
+        <v>7190</v>
+      </c>
+      <c r="E325" t="n">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_02.czi</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>4</v>
+      </c>
+      <c r="C326" t="n">
+        <v>2246</v>
+      </c>
+      <c r="D326" t="n">
+        <v>7335</v>
+      </c>
+      <c r="E326" t="n">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_02.czi</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>5</v>
+      </c>
+      <c r="C327" t="n">
+        <v>2588</v>
+      </c>
+      <c r="D327" t="n">
+        <v>6789</v>
+      </c>
+      <c r="E327" t="n">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_02.czi</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>6</v>
+      </c>
+      <c r="C328" t="n">
+        <v>2472</v>
+      </c>
+      <c r="D328" t="n">
+        <v>7291</v>
+      </c>
+      <c r="E328" t="n">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_02.czi</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>7</v>
+      </c>
+      <c r="C329" t="n">
+        <v>1857</v>
+      </c>
+      <c r="D329" t="n">
+        <v>6367</v>
+      </c>
+      <c r="E329" t="n">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_02.czi</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>8</v>
+      </c>
+      <c r="C330" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D330" t="n">
+        <v>5977</v>
+      </c>
+      <c r="E330" t="n">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_02.czi</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>9</v>
+      </c>
+      <c r="C331" t="n">
+        <v>2229</v>
+      </c>
+      <c r="D331" t="n">
+        <v>5478</v>
+      </c>
+      <c r="E331" t="n">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_02.czi</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>10</v>
+      </c>
+      <c r="C332" t="n">
+        <v>1664</v>
+      </c>
+      <c r="D332" t="n">
+        <v>7232</v>
+      </c>
+      <c r="E332" t="n">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_03.czi</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>1</v>
+      </c>
+      <c r="C333" t="n">
+        <v>2108</v>
+      </c>
+      <c r="D333" t="n">
+        <v>6493</v>
+      </c>
+      <c r="E333" t="n">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_03.czi</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>2</v>
+      </c>
+      <c r="C334" t="n">
+        <v>1739</v>
+      </c>
+      <c r="D334" t="n">
+        <v>3781</v>
+      </c>
+      <c r="E334" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_03.czi</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>3</v>
+      </c>
+      <c r="C335" t="n">
+        <v>2188</v>
+      </c>
+      <c r="D335" t="n">
+        <v>6564</v>
+      </c>
+      <c r="E335" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_03.czi</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>4</v>
+      </c>
+      <c r="C336" t="n">
+        <v>2260</v>
+      </c>
+      <c r="D336" t="n">
+        <v>7602</v>
+      </c>
+      <c r="E336" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_03.czi</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>5</v>
+      </c>
+      <c r="C337" t="n">
+        <v>2363</v>
+      </c>
+      <c r="D337" t="n">
+        <v>6534</v>
+      </c>
+      <c r="E337" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_03.czi</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>6</v>
+      </c>
+      <c r="C338" t="n">
+        <v>1647</v>
+      </c>
+      <c r="D338" t="n">
+        <v>6175</v>
+      </c>
+      <c r="E338" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_03.czi</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>7</v>
+      </c>
+      <c r="C339" t="n">
+        <v>1485</v>
+      </c>
+      <c r="D339" t="n">
+        <v>5366</v>
+      </c>
+      <c r="E339" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_03.czi</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>8</v>
+      </c>
+      <c r="C340" t="n">
+        <v>2609</v>
+      </c>
+      <c r="D340" t="n">
+        <v>3689</v>
+      </c>
+      <c r="E340" t="n">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_03.czi</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>9</v>
+      </c>
+      <c r="C341" t="n">
+        <v>1378</v>
+      </c>
+      <c r="D341" t="n">
+        <v>2811</v>
+      </c>
+      <c r="E341" t="n">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_04.czi</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>1</v>
+      </c>
+      <c r="C342" t="n">
+        <v>1716</v>
+      </c>
+      <c r="D342" t="n">
+        <v>6224</v>
+      </c>
+      <c r="E342" t="n">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_04.czi</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>2</v>
+      </c>
+      <c r="C343" t="n">
+        <v>1808</v>
+      </c>
+      <c r="D343" t="n">
+        <v>3814</v>
+      </c>
+      <c r="E343" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_04.czi</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>3</v>
+      </c>
+      <c r="C344" t="n">
+        <v>1850</v>
+      </c>
+      <c r="D344" t="n">
+        <v>6542</v>
+      </c>
+      <c r="E344" t="n">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_04.czi</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>4</v>
+      </c>
+      <c r="C345" t="n">
+        <v>1811</v>
+      </c>
+      <c r="D345" t="n">
+        <v>7034</v>
+      </c>
+      <c r="E345" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_04.czi</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>5</v>
+      </c>
+      <c r="C346" t="n">
+        <v>2356</v>
+      </c>
+      <c r="D346" t="n">
+        <v>6664</v>
+      </c>
+      <c r="E346" t="n">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_04.czi</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>6</v>
+      </c>
+      <c r="C347" t="n">
+        <v>2403</v>
+      </c>
+      <c r="D347" t="n">
+        <v>5068</v>
+      </c>
+      <c r="E347" t="n">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_04.czi</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>7</v>
+      </c>
+      <c r="C348" t="n">
+        <v>2291</v>
+      </c>
+      <c r="D348" t="n">
+        <v>4308</v>
+      </c>
+      <c r="E348" t="n">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_04.czi</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>8</v>
+      </c>
+      <c r="C349" t="n">
+        <v>2280</v>
+      </c>
+      <c r="D349" t="n">
+        <v>6303</v>
+      </c>
+      <c r="E349" t="n">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_05.czi</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>1</v>
+      </c>
+      <c r="C350" t="n">
+        <v>1382</v>
+      </c>
+      <c r="D350" t="n">
+        <v>6040</v>
+      </c>
+      <c r="E350" t="n">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_05.czi</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>2</v>
+      </c>
+      <c r="C351" t="n">
+        <v>1406</v>
+      </c>
+      <c r="D351" t="n">
+        <v>5026</v>
+      </c>
+      <c r="E351" t="n">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_05.czi</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>3</v>
+      </c>
+      <c r="C352" t="n">
+        <v>1793</v>
+      </c>
+      <c r="D352" t="n">
+        <v>6586</v>
+      </c>
+      <c r="E352" t="n">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_05.czi</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>4</v>
+      </c>
+      <c r="C353" t="n">
+        <v>2374</v>
+      </c>
+      <c r="D353" t="n">
+        <v>6767</v>
+      </c>
+      <c r="E353" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_05.czi</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>5</v>
+      </c>
+      <c r="C354" t="n">
+        <v>2528</v>
+      </c>
+      <c r="D354" t="n">
+        <v>6452</v>
+      </c>
+      <c r="E354" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_05.czi</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>6</v>
+      </c>
+      <c r="C355" t="n">
+        <v>2355</v>
+      </c>
+      <c r="D355" t="n">
+        <v>6505</v>
+      </c>
+      <c r="E355" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_05.czi</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>7</v>
+      </c>
+      <c r="C356" t="n">
+        <v>2149</v>
+      </c>
+      <c r="D356" t="n">
+        <v>6749</v>
+      </c>
+      <c r="E356" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_05.czi</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>8</v>
+      </c>
+      <c r="C357" t="n">
+        <v>1822</v>
+      </c>
+      <c r="D357" t="n">
+        <v>5857</v>
+      </c>
+      <c r="E357" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_05.czi</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>9</v>
+      </c>
+      <c r="C358" t="n">
+        <v>2589</v>
+      </c>
+      <c r="D358" t="n">
+        <v>4274</v>
+      </c>
+      <c r="E358" t="n">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_05.czi</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>10</v>
+      </c>
+      <c r="C359" t="n">
+        <v>2112</v>
+      </c>
+      <c r="D359" t="n">
+        <v>4167</v>
+      </c>
+      <c r="E359" t="n">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_06.czi</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>1</v>
+      </c>
+      <c r="C360" t="n">
+        <v>788</v>
+      </c>
+      <c r="D360" t="n">
+        <v>7276</v>
+      </c>
+      <c r="E360" t="n">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_06.czi</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>2</v>
+      </c>
+      <c r="C361" t="n">
+        <v>972</v>
+      </c>
+      <c r="D361" t="n">
+        <v>5021</v>
+      </c>
+      <c r="E361" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_06.czi</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>3</v>
+      </c>
+      <c r="C362" t="n">
+        <v>1289</v>
+      </c>
+      <c r="D362" t="n">
+        <v>6346</v>
+      </c>
+      <c r="E362" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_06.czi</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>4</v>
+      </c>
+      <c r="C363" t="n">
+        <v>1756</v>
+      </c>
+      <c r="D363" t="n">
+        <v>6374</v>
+      </c>
+      <c r="E363" t="n">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_06.czi</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>5</v>
+      </c>
+      <c r="C364" t="n">
+        <v>1918</v>
+      </c>
+      <c r="D364" t="n">
+        <v>6834</v>
+      </c>
+      <c r="E364" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_06.czi</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>6</v>
+      </c>
+      <c r="C365" t="n">
+        <v>2116</v>
+      </c>
+      <c r="D365" t="n">
+        <v>6499</v>
+      </c>
+      <c r="E365" t="n">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_06.czi</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>7</v>
+      </c>
+      <c r="C366" t="n">
+        <v>2103</v>
+      </c>
+      <c r="D366" t="n">
+        <v>6010</v>
+      </c>
+      <c r="E366" t="n">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_06.czi</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>8</v>
+      </c>
+      <c r="C367" t="n">
+        <v>2783</v>
+      </c>
+      <c r="D367" t="n">
+        <v>6227</v>
+      </c>
+      <c r="E367" t="n">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_06.czi</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>9</v>
+      </c>
+      <c r="C368" t="n">
+        <v>2375</v>
+      </c>
+      <c r="D368" t="n">
+        <v>6978</v>
+      </c>
+      <c r="E368" t="n">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_06.czi</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>10</v>
+      </c>
+      <c r="C369" t="n">
+        <v>1740</v>
+      </c>
+      <c r="D369" t="n">
+        <v>5952</v>
+      </c>
+      <c r="E369" t="n">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_06.czi</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>11</v>
+      </c>
+      <c r="C370" t="n">
+        <v>2680</v>
+      </c>
+      <c r="D370" t="n">
+        <v>6187</v>
+      </c>
+      <c r="E370" t="n">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_06.czi</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>12</v>
+      </c>
+      <c r="C371" t="n">
+        <v>2819</v>
+      </c>
+      <c r="D371" t="n">
+        <v>6347</v>
+      </c>
+      <c r="E371" t="n">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_07.czi</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>1</v>
+      </c>
+      <c r="C372" t="n">
+        <v>1950</v>
+      </c>
+      <c r="D372" t="n">
+        <v>6685</v>
+      </c>
+      <c r="E372" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_07.czi</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>2</v>
+      </c>
+      <c r="C373" t="n">
+        <v>1452</v>
+      </c>
+      <c r="D373" t="n">
+        <v>6222</v>
+      </c>
+      <c r="E373" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_07.czi</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>3</v>
+      </c>
+      <c r="C374" t="n">
+        <v>2407</v>
+      </c>
+      <c r="D374" t="n">
+        <v>7575</v>
+      </c>
+      <c r="E374" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_07.czi</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>4</v>
+      </c>
+      <c r="C375" t="n">
+        <v>2833</v>
+      </c>
+      <c r="D375" t="n">
+        <v>7171</v>
+      </c>
+      <c r="E375" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_07.czi</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>5</v>
+      </c>
+      <c r="C376" t="n">
+        <v>2630</v>
+      </c>
+      <c r="D376" t="n">
+        <v>6572</v>
+      </c>
+      <c r="E376" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_07.czi</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>6</v>
+      </c>
+      <c r="C377" t="n">
+        <v>2465</v>
+      </c>
+      <c r="D377" t="n">
+        <v>6879</v>
+      </c>
+      <c r="E377" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_07.czi</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>7</v>
+      </c>
+      <c r="C378" t="n">
+        <v>2213</v>
+      </c>
+      <c r="D378" t="n">
+        <v>6165</v>
+      </c>
+      <c r="E378" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_07.czi</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>8</v>
+      </c>
+      <c r="C379" t="n">
+        <v>2348</v>
+      </c>
+      <c r="D379" t="n">
+        <v>4978</v>
+      </c>
+      <c r="E379" t="n">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_07.czi</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>9</v>
+      </c>
+      <c r="C380" t="n">
+        <v>1885</v>
+      </c>
+      <c r="D380" t="n">
+        <v>3575</v>
+      </c>
+      <c r="E380" t="n">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_07.czi</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>10</v>
+      </c>
+      <c r="C381" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D381" t="n">
+        <v>2725</v>
+      </c>
+      <c r="E381" t="n">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
           <t>images\UT_z-stack_08.czi</t>
         </is>
       </c>
-      <c r="B309" t="n">
+      <c r="B382" t="n">
+        <v>1</v>
+      </c>
+      <c r="C382" t="n">
+        <v>1048</v>
+      </c>
+      <c r="D382" t="n">
+        <v>6587</v>
+      </c>
+      <c r="E382" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_08.czi</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>2</v>
+      </c>
+      <c r="C383" t="n">
+        <v>1159</v>
+      </c>
+      <c r="D383" t="n">
+        <v>5597</v>
+      </c>
+      <c r="E383" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_08.czi</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>3</v>
+      </c>
+      <c r="C384" t="n">
+        <v>1718</v>
+      </c>
+      <c r="D384" t="n">
+        <v>6928</v>
+      </c>
+      <c r="E384" t="n">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_08.czi</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>4</v>
+      </c>
+      <c r="C385" t="n">
+        <v>2157</v>
+      </c>
+      <c r="D385" t="n">
+        <v>6339</v>
+      </c>
+      <c r="E385" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_08.czi</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>5</v>
+      </c>
+      <c r="C386" t="n">
+        <v>2317</v>
+      </c>
+      <c r="D386" t="n">
+        <v>7411</v>
+      </c>
+      <c r="E386" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_08.czi</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>6</v>
+      </c>
+      <c r="C387" t="n">
+        <v>2299</v>
+      </c>
+      <c r="D387" t="n">
+        <v>5137</v>
+      </c>
+      <c r="E387" t="n">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_08.czi</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>7</v>
+      </c>
+      <c r="C388" t="n">
+        <v>2042</v>
+      </c>
+      <c r="D388" t="n">
+        <v>4054</v>
+      </c>
+      <c r="E388" t="n">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>images\UT_z-stack_08.czi</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
         <v>8</v>
       </c>
-      <c r="C309" t="n">
-        <v>2067</v>
-      </c>
-      <c r="D309" t="n">
-        <v>1026</v>
-      </c>
-      <c r="E309" t="n">
-        <v>618</v>
+      <c r="C389" t="n">
+        <v>2272</v>
+      </c>
+      <c r="D389" t="n">
+        <v>2826</v>
+      </c>
+      <c r="E389" t="n">
+        <v>851</v>
       </c>
     </row>
   </sheetData>

--- a/synuclein_inclusion_biogenesis_2024/image_analysis/mitophagy-analysis/Z_Stack.xlsx
+++ b/synuclein_inclusion_biogenesis_2024/image_analysis/mitophagy-analysis/Z_Stack.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E389"/>
+  <dimension ref="A1:G389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,16 @@
           <t>Overlap Surface Area</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Overlap / Green Surface Area</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Overlap / Red Surface Area</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -478,6 +488,12 @@
       <c r="E2" t="n">
         <v>94</v>
       </c>
+      <c r="F2" t="n">
+        <v>0.06287625418060201</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1203585147247119</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -497,6 +513,12 @@
       <c r="E3" t="n">
         <v>162</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.1447721179624665</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.06340508806262231</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -516,6 +538,12 @@
       <c r="E4" t="n">
         <v>139</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1089341692789969</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02464976059585033</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -535,6 +563,12 @@
       <c r="E5" t="n">
         <v>158</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.1476635514018692</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.02688904016337645</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -554,6 +588,12 @@
       <c r="E6" t="n">
         <v>310</v>
       </c>
+      <c r="F6" t="n">
+        <v>0.328042328042328</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05644573925710124</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -573,6 +613,12 @@
       <c r="E7" t="n">
         <v>294</v>
       </c>
+      <c r="F7" t="n">
+        <v>0.3121019108280255</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0554403168018103</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -592,6 +638,12 @@
       <c r="E8" t="n">
         <v>517</v>
       </c>
+      <c r="F8" t="n">
+        <v>0.3986121819583655</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.09357466063348416</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -611,6 +663,12 @@
       <c r="E9" t="n">
         <v>466</v>
       </c>
+      <c r="F9" t="n">
+        <v>0.3106666666666666</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.09176841276092949</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -630,6 +688,12 @@
       <c r="E10" t="n">
         <v>553</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.3590909090909091</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1083888671109369</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -649,6 +713,12 @@
       <c r="E11" t="n">
         <v>1309</v>
       </c>
+      <c r="F11" t="n">
+        <v>0.7325125909345271</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.2526051717483597</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -668,6 +738,12 @@
       <c r="E12" t="n">
         <v>2616</v>
       </c>
+      <c r="F12" t="n">
+        <v>0.932620320855615</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.4477918521054434</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -687,6 +763,12 @@
       <c r="E13" t="n">
         <v>2593</v>
       </c>
+      <c r="F13" t="n">
+        <v>0.9442825928623453</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.518185451638689</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -706,6 +788,12 @@
       <c r="E14" t="n">
         <v>451</v>
       </c>
+      <c r="F14" t="n">
+        <v>0.4319923371647509</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.2298674821610601</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -725,6 +813,12 @@
       <c r="E15" t="n">
         <v>1137</v>
       </c>
+      <c r="F15" t="n">
+        <v>0.65836711059641</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.2042025862068965</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -744,6 +838,12 @@
       <c r="E16" t="n">
         <v>451</v>
       </c>
+      <c r="F16" t="n">
+        <v>0.4096276112624886</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.07616956595169735</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -763,6 +863,12 @@
       <c r="E17" t="n">
         <v>372</v>
       </c>
+      <c r="F17" t="n">
+        <v>0.2534059945504087</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.06176324090984559</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -782,6 +888,12 @@
       <c r="E18" t="n">
         <v>1099</v>
       </c>
+      <c r="F18" t="n">
+        <v>0.501139990880073</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.1923009623797025</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -801,6 +913,12 @@
       <c r="E19" t="n">
         <v>1419</v>
       </c>
+      <c r="F19" t="n">
+        <v>0.6674506114769521</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.2577188521612786</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -820,6 +938,12 @@
       <c r="E20" t="n">
         <v>1367</v>
       </c>
+      <c r="F20" t="n">
+        <v>0.6767326732673268</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.2714455917394758</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -839,6 +963,12 @@
       <c r="E21" t="n">
         <v>356</v>
       </c>
+      <c r="F21" t="n">
+        <v>0.2809786898184688</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1509754028837998</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -858,6 +988,12 @@
       <c r="E22" t="n">
         <v>497</v>
       </c>
+      <c r="F22" t="n">
+        <v>0.3378653976886472</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.1327102803738318</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -877,6 +1013,12 @@
       <c r="E23" t="n">
         <v>574</v>
       </c>
+      <c r="F23" t="n">
+        <v>0.4415384615384615</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.09359204304581771</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -896,6 +1038,12 @@
       <c r="E24" t="n">
         <v>607</v>
       </c>
+      <c r="F24" t="n">
+        <v>0.5381205673758865</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.09923164950138957</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -915,6 +1063,12 @@
       <c r="E25" t="n">
         <v>934</v>
       </c>
+      <c r="F25" t="n">
+        <v>0.5653753026634383</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1552268572378262</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -934,6 +1088,12 @@
       <c r="E26" t="n">
         <v>2169</v>
       </c>
+      <c r="F26" t="n">
+        <v>0.875656035526847</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.3611990008326394</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -953,6 +1113,12 @@
       <c r="E27" t="n">
         <v>1970</v>
       </c>
+      <c r="F27" t="n">
+        <v>0.8873873873873874</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.3356619526324757</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -972,6 +1138,12 @@
       <c r="E28" t="n">
         <v>2766</v>
       </c>
+      <c r="F28" t="n">
+        <v>0.9561009332872451</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.3832086450540316</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -991,6 +1163,12 @@
       <c r="E29" t="n">
         <v>3642</v>
       </c>
+      <c r="F29" t="n">
+        <v>0.9980816662099206</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.5768134304719671</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1010,6 +1188,12 @@
       <c r="E30" t="n">
         <v>3727</v>
       </c>
+      <c r="F30" t="n">
+        <v>0.9994636631804773</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.6590627763041557</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1029,6 +1213,12 @@
       <c r="E31" t="n">
         <v>552</v>
       </c>
+      <c r="F31" t="n">
+        <v>0.454320987654321</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.2020497803806735</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1048,6 +1238,12 @@
       <c r="E32" t="n">
         <v>497</v>
       </c>
+      <c r="F32" t="n">
+        <v>0.3734034560480842</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.1130830489192264</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1067,6 +1263,12 @@
       <c r="E33" t="n">
         <v>536</v>
       </c>
+      <c r="F33" t="n">
+        <v>0.4656820156385751</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.08900697442710064</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1086,6 +1288,12 @@
       <c r="E34" t="n">
         <v>512</v>
       </c>
+      <c r="F34" t="n">
+        <v>0.4571428571428571</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.09154300017879492</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1105,6 +1313,12 @@
       <c r="E35" t="n">
         <v>455</v>
       </c>
+      <c r="F35" t="n">
+        <v>0.3486590038314176</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.07291666666666667</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1124,6 +1338,12 @@
       <c r="E36" t="n">
         <v>637</v>
       </c>
+      <c r="F36" t="n">
+        <v>0.4018927444794952</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.1009348756140073</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1143,6 +1363,12 @@
       <c r="E37" t="n">
         <v>1519</v>
       </c>
+      <c r="F37" t="n">
+        <v>0.7233333333333334</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.2579385294617083</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1162,6 +1388,12 @@
       <c r="E38" t="n">
         <v>2557</v>
       </c>
+      <c r="F38" t="n">
+        <v>0.9308336366945759</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.5004893325504013</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1181,6 +1413,12 @@
       <c r="E39" t="n">
         <v>2542</v>
       </c>
+      <c r="F39" t="n">
+        <v>0.986418315871168</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.5056693853192759</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1200,6 +1438,12 @@
       <c r="E40" t="n">
         <v>130</v>
       </c>
+      <c r="F40" t="n">
+        <v>0.09393063583815028</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.06714876033057851</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1219,6 +1463,12 @@
       <c r="E41" t="n">
         <v>399</v>
       </c>
+      <c r="F41" t="n">
+        <v>0.2125732551944592</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.1127118644067797</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1238,6 +1488,12 @@
       <c r="E42" t="n">
         <v>371</v>
       </c>
+      <c r="F42" t="n">
+        <v>0.2779026217228465</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.05769828926905132</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1257,6 +1513,12 @@
       <c r="E43" t="n">
         <v>750</v>
       </c>
+      <c r="F43" t="n">
+        <v>0.526685393258427</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.1184834123222749</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1276,6 +1538,12 @@
       <c r="E44" t="n">
         <v>790</v>
       </c>
+      <c r="F44" t="n">
+        <v>0.5935386927122465</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.1299128432823549</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1295,6 +1563,12 @@
       <c r="E45" t="n">
         <v>741</v>
       </c>
+      <c r="F45" t="n">
+        <v>0.5030549898167006</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.1228855721393035</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1314,6 +1588,12 @@
       <c r="E46" t="n">
         <v>780</v>
       </c>
+      <c r="F46" t="n">
+        <v>0.4835709857408556</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.1463689247513605</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1333,6 +1613,12 @@
       <c r="E47" t="n">
         <v>1268</v>
       </c>
+      <c r="F47" t="n">
+        <v>0.7308357348703171</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.2100033123550845</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1352,6 +1638,12 @@
       <c r="E48" t="n">
         <v>1778</v>
       </c>
+      <c r="F48" t="n">
+        <v>0.9034552845528455</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.3194968553459119</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1371,6 +1663,12 @@
       <c r="E49" t="n">
         <v>2415</v>
       </c>
+      <c r="F49" t="n">
+        <v>0.9749697214372225</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.4138108293351611</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1390,6 +1688,12 @@
       <c r="E50" t="n">
         <v>131</v>
       </c>
+      <c r="F50" t="n">
+        <v>0.1699092088197147</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.08618421052631579</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1409,6 +1713,12 @@
       <c r="E51" t="n">
         <v>345</v>
       </c>
+      <c r="F51" t="n">
+        <v>0.2764423076923077</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.1001451378809869</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1428,6 +1738,12 @@
       <c r="E52" t="n">
         <v>609</v>
       </c>
+      <c r="F52" t="n">
+        <v>0.3752310536044362</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.10875</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1447,6 +1763,12 @@
       <c r="E53" t="n">
         <v>641</v>
       </c>
+      <c r="F53" t="n">
+        <v>0.420327868852459</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.1000312109862672</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1466,6 +1788,12 @@
       <c r="E54" t="n">
         <v>708</v>
       </c>
+      <c r="F54" t="n">
+        <v>0.4031890660592255</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.1121140142517815</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1485,6 +1813,12 @@
       <c r="E55" t="n">
         <v>1065</v>
       </c>
+      <c r="F55" t="n">
+        <v>0.5890486725663717</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.168060596496765</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1504,6 +1838,12 @@
       <c r="E56" t="n">
         <v>2246</v>
       </c>
+      <c r="F56" t="n">
+        <v>0.8958915037893898</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.4382439024390244</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1523,6 +1863,12 @@
       <c r="E57" t="n">
         <v>2381</v>
       </c>
+      <c r="F57" t="n">
+        <v>0.9359276729559748</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.5125941872981701</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1542,6 +1888,12 @@
       <c r="E58" t="n">
         <v>1579</v>
       </c>
+      <c r="F58" t="n">
+        <v>0.9930817610062893</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.6177621283255086</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1561,6 +1913,12 @@
       <c r="E59" t="n">
         <v>191</v>
       </c>
+      <c r="F59" t="n">
+        <v>0.4321266968325792</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.05237181244858788</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1580,6 +1938,12 @@
       <c r="E60" t="n">
         <v>443</v>
       </c>
+      <c r="F60" t="n">
+        <v>0.3962432915921288</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.09533032063697008</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1599,6 +1963,12 @@
       <c r="E61" t="n">
         <v>652</v>
       </c>
+      <c r="F61" t="n">
+        <v>0.4992343032159265</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.1380186282811177</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1618,6 +1988,12 @@
       <c r="E62" t="n">
         <v>500</v>
       </c>
+      <c r="F62" t="n">
+        <v>0.5159958720330238</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.07817385866166354</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1637,6 +2013,12 @@
       <c r="E63" t="n">
         <v>811</v>
       </c>
+      <c r="F63" t="n">
+        <v>0.6669407894736842</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.1375042387249915</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1656,6 +2038,12 @@
       <c r="E64" t="n">
         <v>1170</v>
       </c>
+      <c r="F64" t="n">
+        <v>0.7386363636363636</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.2306782334384858</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1675,6 +2063,12 @@
       <c r="E65" t="n">
         <v>1310</v>
       </c>
+      <c r="F65" t="n">
+        <v>0.7123436650353453</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.2568627450980392</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1694,6 +2088,12 @@
       <c r="E66" t="n">
         <v>1274</v>
       </c>
+      <c r="F66" t="n">
+        <v>0.6663179916317992</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.2018377693282636</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1713,6 +2113,12 @@
       <c r="E67" t="n">
         <v>1931</v>
       </c>
+      <c r="F67" t="n">
+        <v>0.7581468394189242</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.2908570567856605</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1732,6 +2138,12 @@
       <c r="E68" t="n">
         <v>1966</v>
       </c>
+      <c r="F68" t="n">
+        <v>0.8916099773242631</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.2956390977443609</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1751,6 +2163,12 @@
       <c r="E69" t="n">
         <v>2154</v>
       </c>
+      <c r="F69" t="n">
+        <v>0.9501543890604323</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.3435954697718934</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1770,6 +2188,12 @@
       <c r="E70" t="n">
         <v>2942</v>
       </c>
+      <c r="F70" t="n">
+        <v>0.9661740558292282</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.3964425279611912</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1789,6 +2213,12 @@
       <c r="E71" t="n">
         <v>2452</v>
       </c>
+      <c r="F71" t="n">
+        <v>0.9765033851055357</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.3206905571540675</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1808,6 +2238,12 @@
       <c r="E72" t="n">
         <v>2086</v>
       </c>
+      <c r="F72" t="n">
+        <v>0.9900332225913622</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.2638836179633143</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1827,6 +2263,12 @@
       <c r="E73" t="n">
         <v>603</v>
       </c>
+      <c r="F73" t="n">
+        <v>0.4874696847210994</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.1278354886580454</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1846,6 +2288,12 @@
       <c r="E74" t="n">
         <v>880</v>
       </c>
+      <c r="F74" t="n">
+        <v>0.4821917808219178</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.185068349106204</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1865,6 +2313,12 @@
       <c r="E75" t="n">
         <v>489</v>
       </c>
+      <c r="F75" t="n">
+        <v>0.364381520119225</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.07984977139124755</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1884,6 +2338,12 @@
       <c r="E76" t="n">
         <v>384</v>
       </c>
+      <c r="F76" t="n">
+        <v>0.2788671023965142</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.07079646017699115</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1903,6 +2363,12 @@
       <c r="E77" t="n">
         <v>394</v>
       </c>
+      <c r="F77" t="n">
+        <v>0.2743732590529248</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.07546447040796782</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1922,6 +2388,12 @@
       <c r="E78" t="n">
         <v>1176</v>
       </c>
+      <c r="F78" t="n">
+        <v>0.6750861079219288</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.2268956202971252</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1941,6 +2413,12 @@
       <c r="E79" t="n">
         <v>1930</v>
       </c>
+      <c r="F79" t="n">
+        <v>0.8547387068201948</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.3464369054029797</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1960,6 +2438,12 @@
       <c r="E80" t="n">
         <v>1871</v>
       </c>
+      <c r="F80" t="n">
+        <v>0.8771683075480544</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.3251086012163336</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1979,6 +2463,12 @@
       <c r="E81" t="n">
         <v>2310</v>
       </c>
+      <c r="F81" t="n">
+        <v>0.9243697478991597</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.391724605731728</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1998,6 +2488,12 @@
       <c r="E82" t="n">
         <v>2641</v>
       </c>
+      <c r="F82" t="n">
+        <v>0.9348672566371682</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.4256931012250161</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2017,6 +2513,12 @@
       <c r="E83" t="n">
         <v>2581</v>
       </c>
+      <c r="F83" t="n">
+        <v>0.9923106497500961</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.3552649690295939</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2036,6 +2538,12 @@
       <c r="E84" t="n">
         <v>137</v>
       </c>
+      <c r="F84" t="n">
+        <v>0.1014063656550703</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.02163613392293114</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2055,6 +2563,12 @@
       <c r="E85" t="n">
         <v>136</v>
       </c>
+      <c r="F85" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.02748029905031319</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2074,6 +2588,12 @@
       <c r="E86" t="n">
         <v>214</v>
       </c>
+      <c r="F86" t="n">
+        <v>0.1060455896927651</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02847259180415114</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2093,6 +2613,12 @@
       <c r="E87" t="n">
         <v>128</v>
       </c>
+      <c r="F87" t="n">
+        <v>0.06490872210953347</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.01789208834218619</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2112,6 +2638,12 @@
       <c r="E88" t="n">
         <v>178</v>
       </c>
+      <c r="F88" t="n">
+        <v>0.104829210836278</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02649992556200685</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2131,6 +2663,12 @@
       <c r="E89" t="n">
         <v>148</v>
       </c>
+      <c r="F89" t="n">
+        <v>0.07728459530026109</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.0224106602059358</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2150,6 +2688,12 @@
       <c r="E90" t="n">
         <v>132</v>
       </c>
+      <c r="F90" t="n">
+        <v>0.08198757763975155</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.02130062933677586</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2169,6 +2713,12 @@
       <c r="E91" t="n">
         <v>170</v>
       </c>
+      <c r="F91" t="n">
+        <v>0.1113294040602489</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.02837589717910199</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2188,6 +2738,12 @@
       <c r="E92" t="n">
         <v>408</v>
       </c>
+      <c r="F92" t="n">
+        <v>0.3314378554021121</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.06620152523121857</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2207,6 +2763,12 @@
       <c r="E93" t="n">
         <v>899</v>
       </c>
+      <c r="F93" t="n">
+        <v>0.7393092105263158</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.1583861874559549</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2226,6 +2788,12 @@
       <c r="E94" t="n">
         <v>1467</v>
       </c>
+      <c r="F94" t="n">
+        <v>0.856892523364486</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.2806044376434583</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2245,6 +2813,12 @@
       <c r="E95" t="n">
         <v>380</v>
       </c>
+      <c r="F95" t="n">
+        <v>0.2724014336917563</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.06730428622033298</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2264,6 +2838,12 @@
       <c r="E96" t="n">
         <v>221</v>
       </c>
+      <c r="F96" t="n">
+        <v>0.1755361397934869</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.0633964429145152</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2283,6 +2863,12 @@
       <c r="E97" t="n">
         <v>165</v>
       </c>
+      <c r="F97" t="n">
+        <v>0.0695322376738306</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02418645558487247</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2302,6 +2888,12 @@
       <c r="E98" t="n">
         <v>116</v>
       </c>
+      <c r="F98" t="n">
+        <v>0.04489164086687306</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.01616499442586399</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2321,6 +2913,12 @@
       <c r="E99" t="n">
         <v>143</v>
       </c>
+      <c r="F99" t="n">
+        <v>0.05531914893617021</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02098620487232169</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2340,6 +2938,12 @@
       <c r="E100" t="n">
         <v>238</v>
       </c>
+      <c r="F100" t="n">
+        <v>0.109475620975161</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.03512396694214876</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2359,6 +2963,12 @@
       <c r="E101" t="n">
         <v>233</v>
       </c>
+      <c r="F101" t="n">
+        <v>0.1147783251231527</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.03393039172855686</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2378,6 +2988,12 @@
       <c r="E102" t="n">
         <v>319</v>
       </c>
+      <c r="F102" t="n">
+        <v>0.1575308641975309</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.04749143963078755</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2397,6 +3013,12 @@
       <c r="E103" t="n">
         <v>301</v>
       </c>
+      <c r="F103" t="n">
+        <v>0.222140221402214</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.04526996540833208</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2416,6 +3038,12 @@
       <c r="E104" t="n">
         <v>193</v>
       </c>
+      <c r="F104" t="n">
+        <v>0.1730941704035874</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.04257666004853298</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2435,6 +3063,12 @@
       <c r="E105" t="n">
         <v>402</v>
       </c>
+      <c r="F105" t="n">
+        <v>0.2430471584038694</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.08254620123203285</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2454,6 +3088,12 @@
       <c r="E106" t="n">
         <v>708</v>
       </c>
+      <c r="F106" t="n">
+        <v>0.3610402855685875</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.1101774042950514</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2473,6 +3113,12 @@
       <c r="E107" t="n">
         <v>243</v>
       </c>
+      <c r="F107" t="n">
+        <v>0.1444708680142687</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.04984615384615385</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2492,6 +3138,12 @@
       <c r="E108" t="n">
         <v>284</v>
       </c>
+      <c r="F108" t="n">
+        <v>0.1179891981719983</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.04624653965152255</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2511,6 +3163,12 @@
       <c r="E109" t="n">
         <v>331</v>
       </c>
+      <c r="F109" t="n">
+        <v>0.132241310427487</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.04731275014293882</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2530,6 +3188,12 @@
       <c r="E110" t="n">
         <v>129</v>
       </c>
+      <c r="F110" t="n">
+        <v>0.05054858934169279</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.01838392475416845</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2549,6 +3213,12 @@
       <c r="E111" t="n">
         <v>145</v>
       </c>
+      <c r="F111" t="n">
+        <v>0.0595482546201232</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.02041390961565536</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2568,6 +3238,12 @@
       <c r="E112" t="n">
         <v>170</v>
       </c>
+      <c r="F112" t="n">
+        <v>0.07498897220996913</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.02607761926675871</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2587,6 +3263,12 @@
       <c r="E113" t="n">
         <v>156</v>
       </c>
+      <c r="F113" t="n">
+        <v>0.09743910056214866</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.02291758483913618</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2606,6 +3288,12 @@
       <c r="E114" t="n">
         <v>217</v>
       </c>
+      <c r="F114" t="n">
+        <v>0.1596762325239146</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.03300882263462124</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2625,6 +3313,12 @@
       <c r="E115" t="n">
         <v>244</v>
       </c>
+      <c r="F115" t="n">
+        <v>0.2877358490566038</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.03761368891629413</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2644,6 +3338,12 @@
       <c r="E116" t="n">
         <v>523</v>
       </c>
+      <c r="F116" t="n">
+        <v>0.9924098671726755</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.06850032743942371</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2663,6 +3363,12 @@
       <c r="E117" t="n">
         <v>1795</v>
       </c>
+      <c r="F117" t="n">
+        <v>0.9640171858216972</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.2852375655490227</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2682,6 +3388,12 @@
       <c r="E118" t="n">
         <v>769</v>
       </c>
+      <c r="F118" t="n">
+        <v>0.4422081656124209</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.2522138406034766</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2701,6 +3413,12 @@
       <c r="E119" t="n">
         <v>176</v>
       </c>
+      <c r="F119" t="n">
+        <v>0.1268925739005047</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.04008198588020952</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2720,6 +3438,12 @@
       <c r="E120" t="n">
         <v>131</v>
       </c>
+      <c r="F120" t="n">
+        <v>0.06927551560021153</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.02776600254345062</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2739,6 +3463,12 @@
       <c r="E121" t="n">
         <v>55</v>
       </c>
+      <c r="F121" t="n">
+        <v>0.0238198354265916</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.008018661612479954</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2758,6 +3488,12 @@
       <c r="E122" t="n">
         <v>134</v>
       </c>
+      <c r="F122" t="n">
+        <v>0.05724049551473729</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.01825115772269137</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2777,6 +3513,12 @@
       <c r="E123" t="n">
         <v>330</v>
       </c>
+      <c r="F123" t="n">
+        <v>0.1505474452554744</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.05643919958953309</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2796,6 +3538,12 @@
       <c r="E124" t="n">
         <v>538</v>
       </c>
+      <c r="F124" t="n">
+        <v>0.304643261608154</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.09569548203486304</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2815,6 +3563,12 @@
       <c r="E125" t="n">
         <v>254</v>
       </c>
+      <c r="F125" t="n">
+        <v>0.2020684168655529</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.04830734119437048</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2834,6 +3588,12 @@
       <c r="E126" t="n">
         <v>254</v>
       </c>
+      <c r="F126" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.05383637134378974</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2853,6 +3613,12 @@
       <c r="E127" t="n">
         <v>898</v>
       </c>
+      <c r="F127" t="n">
+        <v>0.5834957764782326</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.16825932171632</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2872,6 +3638,12 @@
       <c r="E128" t="n">
         <v>240</v>
       </c>
+      <c r="F128" t="n">
+        <v>0.2594594594594595</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.08403361344537816</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -2891,6 +3663,12 @@
       <c r="E129" t="n">
         <v>484</v>
       </c>
+      <c r="F129" t="n">
+        <v>0.3556208670095518</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.1016806722689076</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -2910,6 +3688,12 @@
       <c r="E130" t="n">
         <v>577</v>
       </c>
+      <c r="F130" t="n">
+        <v>0.3831341301460823</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.09618269711618603</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2929,6 +3713,12 @@
       <c r="E131" t="n">
         <v>201</v>
       </c>
+      <c r="F131" t="n">
+        <v>0.1459694989106754</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.03233070612835773</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -2948,6 +3738,12 @@
       <c r="E132" t="n">
         <v>52</v>
       </c>
+      <c r="F132" t="n">
+        <v>0.04463519313304721</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.009195402298850575</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -2967,6 +3763,12 @@
       <c r="E133" t="n">
         <v>86</v>
       </c>
+      <c r="F133" t="n">
+        <v>0.04514435695538058</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.01480461353072818</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2986,6 +3788,12 @@
       <c r="E134" t="n">
         <v>200</v>
       </c>
+      <c r="F134" t="n">
+        <v>0.09153318077803203</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.03418803418803419</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3005,6 +3813,12 @@
       <c r="E135" t="n">
         <v>472</v>
       </c>
+      <c r="F135" t="n">
+        <v>0.2409392547217968</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.07146101438304316</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3024,6 +3838,12 @@
       <c r="E136" t="n">
         <v>94</v>
       </c>
+      <c r="F136" t="n">
+        <v>0.1443932411674347</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.01725403817914831</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3043,6 +3863,12 @@
       <c r="E137" t="n">
         <v>531</v>
       </c>
+      <c r="F137" t="n">
+        <v>0.6020408163265306</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.09761029411764706</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3062,6 +3888,12 @@
       <c r="E138" t="n">
         <v>57</v>
       </c>
+      <c r="F138" t="n">
+        <v>0.07270408163265306</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.008637672374602213</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3081,6 +3913,12 @@
       <c r="E139" t="n">
         <v>22</v>
       </c>
+      <c r="F139" t="n">
+        <v>0.02009132420091324</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.003485424588086185</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3100,6 +3938,12 @@
       <c r="E140" t="n">
         <v>206</v>
       </c>
+      <c r="F140" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.02681244305609788</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3119,6 +3963,12 @@
       <c r="E141" t="n">
         <v>496</v>
       </c>
+      <c r="F141" t="n">
+        <v>0.2583333333333334</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.0659223817118554</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3138,6 +3988,12 @@
       <c r="E142" t="n">
         <v>395</v>
       </c>
+      <c r="F142" t="n">
+        <v>0.284992784992785</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.05695746214852199</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3157,6 +4013,12 @@
       <c r="E143" t="n">
         <v>574</v>
       </c>
+      <c r="F143" t="n">
+        <v>0.47953216374269</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.1152379040353343</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3176,6 +4038,12 @@
       <c r="E144" t="n">
         <v>820</v>
       </c>
+      <c r="F144" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.1633791591950588</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3195,6 +4063,12 @@
       <c r="E145" t="n">
         <v>1041</v>
       </c>
+      <c r="F145" t="n">
+        <v>0.7626373626373626</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.2148163433759802</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3214,6 +4088,12 @@
       <c r="E146" t="n">
         <v>302</v>
       </c>
+      <c r="F146" t="n">
+        <v>0.1325142606406318</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.05636431504292647</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3233,6 +4113,12 @@
       <c r="E147" t="n">
         <v>139</v>
       </c>
+      <c r="F147" t="n">
+        <v>0.0765840220385675</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.03186611646033929</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3252,6 +4138,12 @@
       <c r="E148" t="n">
         <v>237</v>
       </c>
+      <c r="F148" t="n">
+        <v>0.09556451612903226</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.0394342762063228</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3271,6 +4163,12 @@
       <c r="E149" t="n">
         <v>272</v>
       </c>
+      <c r="F149" t="n">
+        <v>0.1416666666666667</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.04004121890181069</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -3290,6 +4188,12 @@
       <c r="E150" t="n">
         <v>177</v>
       </c>
+      <c r="F150" t="n">
+        <v>0.1394799054373523</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.02779959164441652</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -3309,6 +4213,12 @@
       <c r="E151" t="n">
         <v>1018</v>
       </c>
+      <c r="F151" t="n">
+        <v>0.8627118644067797</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.1835557158312297</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3328,6 +4238,12 @@
       <c r="E152" t="n">
         <v>2672</v>
       </c>
+      <c r="F152" t="n">
+        <v>0.939521800281294</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.5474288055726285</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3347,6 +4263,12 @@
       <c r="E153" t="n">
         <v>1813</v>
       </c>
+      <c r="F153" t="n">
+        <v>1</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.3054245283018868</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3366,6 +4288,12 @@
       <c r="E154" t="n">
         <v>107</v>
       </c>
+      <c r="F154" t="n">
+        <v>0.04286858974358974</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.01583542992452272</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -3385,6 +4313,12 @@
       <c r="E155" t="n">
         <v>92</v>
       </c>
+      <c r="F155" t="n">
+        <v>0.04653515427415276</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.01597222222222222</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -3404,6 +4338,12 @@
       <c r="E156" t="n">
         <v>135</v>
       </c>
+      <c r="F156" t="n">
+        <v>0.05321245565628695</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.02108386693737311</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -3423,6 +4363,12 @@
       <c r="E157" t="n">
         <v>112</v>
       </c>
+      <c r="F157" t="n">
+        <v>0.04892966360856269</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.01415034744156664</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -3442,6 +4388,12 @@
       <c r="E158" t="n">
         <v>284</v>
       </c>
+      <c r="F158" t="n">
+        <v>0.1094412331406551</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.03985964912280702</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -3461,6 +4413,12 @@
       <c r="E159" t="n">
         <v>83</v>
       </c>
+      <c r="F159" t="n">
+        <v>0.03261296660117878</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.01223466981132076</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -3480,6 +4438,12 @@
       <c r="E160" t="n">
         <v>170</v>
       </c>
+      <c r="F160" t="n">
+        <v>0.0947603121516165</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.02933057280883368</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -3499,6 +4463,12 @@
       <c r="E161" t="n">
         <v>516</v>
       </c>
+      <c r="F161" t="n">
+        <v>0.3301343570057582</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.1077469200250574</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -3518,6 +4488,12 @@
       <c r="E162" t="n">
         <v>2163</v>
       </c>
+      <c r="F162" t="n">
+        <v>0.7851179673321234</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.5855441256090959</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -3537,6 +4513,12 @@
       <c r="E163" t="n">
         <v>75</v>
       </c>
+      <c r="F163" t="n">
+        <v>0.0501002004008016</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.01123427201917316</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -3556,6 +4538,12 @@
       <c r="E164" t="n">
         <v>128</v>
       </c>
+      <c r="F164" t="n">
+        <v>0.0782874617737003</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.02394313505424616</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -3575,6 +4563,12 @@
       <c r="E165" t="n">
         <v>111</v>
       </c>
+      <c r="F165" t="n">
+        <v>0.05117565698478561</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.01753831568968241</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -3594,6 +4588,12 @@
       <c r="E166" t="n">
         <v>176</v>
       </c>
+      <c r="F166" t="n">
+        <v>0.06945540647198106</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.02696904688936562</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -3613,6 +4613,12 @@
       <c r="E167" t="n">
         <v>221</v>
       </c>
+      <c r="F167" t="n">
+        <v>0.0896551724137931</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.03182603686635944</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -3632,6 +4638,12 @@
       <c r="E168" t="n">
         <v>170</v>
       </c>
+      <c r="F168" t="n">
+        <v>0.08337420304070622</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.02530138413454383</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -3651,6 +4663,12 @@
       <c r="E169" t="n">
         <v>173</v>
       </c>
+      <c r="F169" t="n">
+        <v>0.08667334669338678</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.02530719719133996</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -3670,6 +4688,12 @@
       <c r="E170" t="n">
         <v>243</v>
       </c>
+      <c r="F170" t="n">
+        <v>0.1506509609423435</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.03811166875784191</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -3689,6 +4713,12 @@
       <c r="E171" t="n">
         <v>1185</v>
       </c>
+      <c r="F171" t="n">
+        <v>0.561877667140825</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.2409026224842448</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -3708,6 +4738,12 @@
       <c r="E172" t="n">
         <v>1065</v>
       </c>
+      <c r="F172" t="n">
+        <v>0.5695187165775401</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.2027798933739528</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -3727,6 +4763,12 @@
       <c r="E173" t="n">
         <v>70</v>
       </c>
+      <c r="F173" t="n">
+        <v>0.03334921391138637</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.01224418401259402</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -3746,6 +4788,12 @@
       <c r="E174" t="n">
         <v>152</v>
       </c>
+      <c r="F174" t="n">
+        <v>0.1158536585365854</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.02504118616144975</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -3765,6 +4813,12 @@
       <c r="E175" t="n">
         <v>102</v>
       </c>
+      <c r="F175" t="n">
+        <v>0.04913294797687862</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.01460690247744522</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -3784,6 +4838,12 @@
       <c r="E176" t="n">
         <v>80</v>
       </c>
+      <c r="F176" t="n">
+        <v>0.03075740099961553</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.0131449227735787</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -3803,6 +4863,12 @@
       <c r="E177" t="n">
         <v>458</v>
       </c>
+      <c r="F177" t="n">
+        <v>0.1755461862782675</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.06582351250359299</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -3822,6 +4888,12 @@
       <c r="E178" t="n">
         <v>225</v>
       </c>
+      <c r="F178" t="n">
+        <v>0.08680555555555555</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.03684900098264002</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -3841,6 +4913,12 @@
       <c r="E179" t="n">
         <v>379</v>
       </c>
+      <c r="F179" t="n">
+        <v>0.1489194499017682</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.07440125638005497</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -3860,6 +4938,12 @@
       <c r="E180" t="n">
         <v>1189</v>
       </c>
+      <c r="F180" t="n">
+        <v>0.449187759727994</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.2335494009035553</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -3879,6 +4963,12 @@
       <c r="E181" t="n">
         <v>2215</v>
       </c>
+      <c r="F181" t="n">
+        <v>0.8116526200073287</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.4393097976993257</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -3898,6 +4988,12 @@
       <c r="E182" t="n">
         <v>2075</v>
       </c>
+      <c r="F182" t="n">
+        <v>0.8511074651353568</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.5517149694230258</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -3917,6 +5013,12 @@
       <c r="E183" t="n">
         <v>2077</v>
       </c>
+      <c r="F183" t="n">
+        <v>0.8654166666666666</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.5870548332391181</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -3936,6 +5038,12 @@
       <c r="E184" t="n">
         <v>250</v>
       </c>
+      <c r="F184" t="n">
+        <v>0.1207729468599034</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.0471342383107089</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -3955,6 +5063,12 @@
       <c r="E185" t="n">
         <v>112</v>
       </c>
+      <c r="F185" t="n">
+        <v>0.08345752608047691</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.02283384301732926</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -3974,6 +5088,12 @@
       <c r="E186" t="n">
         <v>228</v>
       </c>
+      <c r="F186" t="n">
+        <v>0.09661016949152543</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.03608165849026745</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -3993,6 +5113,12 @@
       <c r="E187" t="n">
         <v>274</v>
       </c>
+      <c r="F187" t="n">
+        <v>0.1127572016460905</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.038607862477103</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -4012,6 +5138,12 @@
       <c r="E188" t="n">
         <v>212</v>
       </c>
+      <c r="F188" t="n">
+        <v>0.1007604562737643</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.03230230077708365</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -4031,6 +5163,12 @@
       <c r="E189" t="n">
         <v>443</v>
       </c>
+      <c r="F189" t="n">
+        <v>0.2457016084303938</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.09533032063697008</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -4050,6 +5188,12 @@
       <c r="E190" t="n">
         <v>1080</v>
       </c>
+      <c r="F190" t="n">
+        <v>0.6670784434836319</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.2165196471531676</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -4069,6 +5213,12 @@
       <c r="E191" t="n">
         <v>1537</v>
       </c>
+      <c r="F191" t="n">
+        <v>0.7597627286208601</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.3248784612132741</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -4088,6 +5238,12 @@
       <c r="E192" t="n">
         <v>22</v>
       </c>
+      <c r="F192" t="n">
+        <v>0.01237345331833521</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.003654485049833887</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -4107,6 +5263,12 @@
       <c r="E193" t="n">
         <v>97</v>
       </c>
+      <c r="F193" t="n">
+        <v>0.04558270676691729</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.0185574899559977</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -4126,6 +5288,12 @@
       <c r="E194" t="n">
         <v>100</v>
       </c>
+      <c r="F194" t="n">
+        <v>0.03825554705432287</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.01460067163089502</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -4145,6 +5313,12 @@
       <c r="E195" t="n">
         <v>193</v>
       </c>
+      <c r="F195" t="n">
+        <v>0.07871125611745514</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.02768215720022949</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -4164,6 +5338,12 @@
       <c r="E196" t="n">
         <v>193</v>
       </c>
+      <c r="F196" t="n">
+        <v>0.08112652374947457</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.0302887633396108</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -4183,6 +5363,12 @@
       <c r="E197" t="n">
         <v>229</v>
       </c>
+      <c r="F197" t="n">
+        <v>0.1114355231143552</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.03548187170746823</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -4202,6 +5388,12 @@
       <c r="E198" t="n">
         <v>185</v>
       </c>
+      <c r="F198" t="n">
+        <v>0.08693609022556391</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.02923052614947069</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -4221,6 +5413,12 @@
       <c r="E199" t="n">
         <v>131</v>
       </c>
+      <c r="F199" t="n">
+        <v>0.06304138594802695</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.02072456889732637</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -4240,6 +5438,12 @@
       <c r="E200" t="n">
         <v>318</v>
       </c>
+      <c r="F200" t="n">
+        <v>0.1743421052631579</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.05736965542125203</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -4259,6 +5463,12 @@
       <c r="E201" t="n">
         <v>569</v>
       </c>
+      <c r="F201" t="n">
+        <v>0.2805719921104536</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.09657162253903598</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -4278,6 +5488,12 @@
       <c r="E202" t="n">
         <v>1142</v>
       </c>
+      <c r="F202" t="n">
+        <v>0.5279704114655571</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.1721694557515453</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -4297,6 +5513,12 @@
       <c r="E203" t="n">
         <v>1116</v>
       </c>
+      <c r="F203" t="n">
+        <v>0.7670103092783506</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.1506682867557716</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -4316,6 +5538,12 @@
       <c r="E204" t="n">
         <v>1074</v>
       </c>
+      <c r="F204" t="n">
+        <v>0.7660485021398002</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.1827152092548486</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -4335,6 +5563,12 @@
       <c r="E205" t="n">
         <v>139</v>
       </c>
+      <c r="F205" t="n">
+        <v>0.09174917491749175</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.02533260433752506</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -4354,6 +5588,12 @@
       <c r="E206" t="n">
         <v>54</v>
       </c>
+      <c r="F206" t="n">
+        <v>0.02806652806652807</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.01167820069204152</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -4373,6 +5613,12 @@
       <c r="E207" t="n">
         <v>72</v>
       </c>
+      <c r="F207" t="n">
+        <v>0.02330851408222726</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.01070472792149866</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -4392,6 +5638,12 @@
       <c r="E208" t="n">
         <v>80</v>
       </c>
+      <c r="F208" t="n">
+        <v>0.03184713375796178</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.01106347669755221</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -4411,6 +5663,12 @@
       <c r="E209" t="n">
         <v>186</v>
       </c>
+      <c r="F209" t="n">
+        <v>0.09365558912386707</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.02855826807922616</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -4430,6 +5688,12 @@
       <c r="E210" t="n">
         <v>538</v>
       </c>
+      <c r="F210" t="n">
+        <v>0.2602805999032414</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.09206023271731691</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -4449,6 +5713,12 @@
       <c r="E211" t="n">
         <v>490</v>
       </c>
+      <c r="F211" t="n">
+        <v>0.3281982585398526</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0.1013234077750207</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -4468,6 +5738,12 @@
       <c r="E212" t="n">
         <v>684</v>
       </c>
+      <c r="F212" t="n">
+        <v>0.4219617520049352</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0.1601123595505618</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -4487,6 +5763,12 @@
       <c r="E213" t="n">
         <v>1327</v>
       </c>
+      <c r="F213" t="n">
+        <v>0.6889927310488058</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0.2073761525238318</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -4506,6 +5788,12 @@
       <c r="E214" t="n">
         <v>167</v>
       </c>
+      <c r="F214" t="n">
+        <v>0.07699400645458737</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.02564102564102564</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -4525,6 +5813,12 @@
       <c r="E215" t="n">
         <v>37</v>
       </c>
+      <c r="F215" t="n">
+        <v>0.0188295165394402</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0.006671474936891453</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -4544,6 +5838,12 @@
       <c r="E216" t="n">
         <v>209</v>
       </c>
+      <c r="F216" t="n">
+        <v>0.06774716369529984</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0.03016308269591572</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -4563,6 +5863,12 @@
       <c r="E217" t="n">
         <v>356</v>
       </c>
+      <c r="F217" t="n">
+        <v>0.1279654924514738</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0.04601861427094105</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -4582,6 +5888,12 @@
       <c r="E218" t="n">
         <v>188</v>
       </c>
+      <c r="F218" t="n">
+        <v>0.07049118860142482</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0.02694567865844919</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -4601,6 +5913,12 @@
       <c r="E219" t="n">
         <v>118</v>
       </c>
+      <c r="F219" t="n">
+        <v>0.04595015576323987</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0.01702987444075624</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -4620,6 +5938,12 @@
       <c r="E220" t="n">
         <v>125</v>
       </c>
+      <c r="F220" t="n">
+        <v>0.05808550185873606</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.02028891413731537</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -4639,6 +5963,12 @@
       <c r="E221" t="n">
         <v>342</v>
       </c>
+      <c r="F221" t="n">
+        <v>0.2084095063985375</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0.0958251611095545</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -4658,6 +5988,12 @@
       <c r="E222" t="n">
         <v>1028</v>
       </c>
+      <c r="F222" t="n">
+        <v>0.5307176045431079</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0.193414863593603</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -4677,6 +6013,12 @@
       <c r="E223" t="n">
         <v>191</v>
       </c>
+      <c r="F223" t="n">
+        <v>0.1288798920377868</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.02792805965784471</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -4696,6 +6038,12 @@
       <c r="E224" t="n">
         <v>102</v>
       </c>
+      <c r="F224" t="n">
+        <v>0.05012285012285012</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0.01542649727767695</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -4715,6 +6063,12 @@
       <c r="E225" t="n">
         <v>284</v>
       </c>
+      <c r="F225" t="n">
+        <v>0.1248900615655233</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0.0377810296660902</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -4734,6 +6088,12 @@
       <c r="E226" t="n">
         <v>123</v>
       </c>
+      <c r="F226" t="n">
+        <v>0.05203045685279188</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0.01788830715532286</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -4753,6 +6113,12 @@
       <c r="E227" t="n">
         <v>81</v>
       </c>
+      <c r="F227" t="n">
+        <v>0.03476394849785408</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0.01216947115384615</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -4772,6 +6138,12 @@
       <c r="E228" t="n">
         <v>157</v>
       </c>
+      <c r="F228" t="n">
+        <v>0.08593322386425835</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0.02557419775207689</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -4791,6 +6163,12 @@
       <c r="E229" t="n">
         <v>436</v>
       </c>
+      <c r="F229" t="n">
+        <v>0.293207800941493</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0.07879992770648835</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -4810,6 +6188,12 @@
       <c r="E230" t="n">
         <v>737</v>
       </c>
+      <c r="F230" t="n">
+        <v>0.6240474174428451</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0.1526195899772209</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -4829,6 +6213,12 @@
       <c r="E231" t="n">
         <v>1575</v>
       </c>
+      <c r="F231" t="n">
+        <v>0.8417958311063602</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0.2491694352159468</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -4848,6 +6238,12 @@
       <c r="E232" t="n">
         <v>67</v>
       </c>
+      <c r="F232" t="n">
+        <v>0.05138036809815951</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0.01235934329459509</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -4867,6 +6263,12 @@
       <c r="E233" t="n">
         <v>103</v>
       </c>
+      <c r="F233" t="n">
+        <v>0.05643835616438356</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0.02118034135307423</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -4886,6 +6288,12 @@
       <c r="E234" t="n">
         <v>135</v>
       </c>
+      <c r="F234" t="n">
+        <v>0.05734919286321156</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0.01973395702382693</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -4905,6 +6313,12 @@
       <c r="E235" t="n">
         <v>172</v>
       </c>
+      <c r="F235" t="n">
+        <v>0.06994713298088653</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0.02417088251826869</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -4924,6 +6338,12 @@
       <c r="E236" t="n">
         <v>99</v>
       </c>
+      <c r="F236" t="n">
+        <v>0.04024390243902439</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0.0135989010989011</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -4943,6 +6363,12 @@
       <c r="E237" t="n">
         <v>72</v>
       </c>
+      <c r="F237" t="n">
+        <v>0.03234501347708895</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0.009935145577480337</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -4962,6 +6388,12 @@
       <c r="E238" t="n">
         <v>145</v>
       </c>
+      <c r="F238" t="n">
+        <v>0.06608933454876938</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0.02155172413793104</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -4981,6 +6413,12 @@
       <c r="E239" t="n">
         <v>224</v>
       </c>
+      <c r="F239" t="n">
+        <v>0.1100196463654224</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0.03229527104959631</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -5000,6 +6438,12 @@
       <c r="E240" t="n">
         <v>380</v>
       </c>
+      <c r="F240" t="n">
+        <v>0.2161547212741752</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0.05634638196915777</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -5019,6 +6463,12 @@
       <c r="E241" t="n">
         <v>1475</v>
       </c>
+      <c r="F241" t="n">
+        <v>0.6882874475034998</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0.2381721298239948</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -5038,6 +6488,12 @@
       <c r="E242" t="n">
         <v>1959</v>
       </c>
+      <c r="F242" t="n">
+        <v>0.9472920696324951</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0.308067306180217</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -5057,6 +6513,12 @@
       <c r="E243" t="n">
         <v>220</v>
       </c>
+      <c r="F243" t="n">
+        <v>0.0764685436218283</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0.03122338915696849</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -5076,6 +6538,12 @@
       <c r="E244" t="n">
         <v>66</v>
       </c>
+      <c r="F244" t="n">
+        <v>0.03071195905072126</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0.01246929907424901</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -5095,6 +6563,12 @@
       <c r="E245" t="n">
         <v>172</v>
       </c>
+      <c r="F245" t="n">
+        <v>0.05856315968675519</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0.02484830973707021</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -5114,6 +6588,12 @@
       <c r="E246" t="n">
         <v>172</v>
       </c>
+      <c r="F246" t="n">
+        <v>0.05224787363304982</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0.02368819721801405</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -5133,6 +6613,12 @@
       <c r="E247" t="n">
         <v>153</v>
       </c>
+      <c r="F247" t="n">
+        <v>0.0467746866401712</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0.02095890410958904</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -5152,6 +6638,12 @@
       <c r="E248" t="n">
         <v>170</v>
       </c>
+      <c r="F248" t="n">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0.02511078286558346</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -5171,6 +6663,12 @@
       <c r="E249" t="n">
         <v>528</v>
       </c>
+      <c r="F249" t="n">
+        <v>0.191027496382055</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0.1209068010075567</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -5190,6 +6688,12 @@
       <c r="E250" t="n">
         <v>829</v>
       </c>
+      <c r="F250" t="n">
+        <v>0.4633873672442705</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0.2673331183489197</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -5209,6 +6713,12 @@
       <c r="E251" t="n">
         <v>1360</v>
       </c>
+      <c r="F251" t="n">
+        <v>0.7798165137614679</v>
+      </c>
+      <c r="G251" t="n">
+        <v>0.3673689897352782</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -5228,6 +6738,12 @@
       <c r="E252" t="n">
         <v>1696</v>
       </c>
+      <c r="F252" t="n">
+        <v>0.9735935706084959</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0.4005668398677374</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -5247,6 +6763,12 @@
       <c r="E253" t="n">
         <v>114</v>
       </c>
+      <c r="F253" t="n">
+        <v>0.095878889823381</v>
+      </c>
+      <c r="G253" t="n">
+        <v>0.02139238130981422</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -5266,6 +6788,12 @@
       <c r="E254" t="n">
         <v>166</v>
       </c>
+      <c r="F254" t="n">
+        <v>0.07931199235547062</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0.02452356330329443</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -5285,6 +6813,12 @@
       <c r="E255" t="n">
         <v>117</v>
       </c>
+      <c r="F255" t="n">
+        <v>0.04936708860759494</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0.01634078212290503</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -5304,6 +6838,12 @@
       <c r="E256" t="n">
         <v>99</v>
       </c>
+      <c r="F256" t="n">
+        <v>0.03961584633853541</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0.01442938347179711</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -5323,6 +6863,12 @@
       <c r="E257" t="n">
         <v>38</v>
       </c>
+      <c r="F257" t="n">
+        <v>0.01903807615230461</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0.005344585091420534</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -5342,6 +6888,12 @@
       <c r="E258" t="n">
         <v>142</v>
       </c>
+      <c r="F258" t="n">
+        <v>0.06405051871898963</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0.02386153587632331</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -5361,6 +6913,12 @@
       <c r="E259" t="n">
         <v>269</v>
       </c>
+      <c r="F259" t="n">
+        <v>0.1364097363083164</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0.04214319285602381</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -5380,6 +6938,12 @@
       <c r="E260" t="n">
         <v>374</v>
       </c>
+      <c r="F260" t="n">
+        <v>0.1788617886178862</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0.05800248138957816</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -5399,6 +6963,12 @@
       <c r="E261" t="n">
         <v>440</v>
       </c>
+      <c r="F261" t="n">
+        <v>0.2663438256658596</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0.07582285024987076</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -5418,6 +6988,12 @@
       <c r="E262" t="n">
         <v>25</v>
       </c>
+      <c r="F262" t="n">
+        <v>0.0138121546961326</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0.004172926055750292</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -5437,6 +7013,12 @@
       <c r="E263" t="n">
         <v>8</v>
       </c>
+      <c r="F263" t="n">
+        <v>0.004282655246252677</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0.002199010445299615</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -5456,6 +7038,12 @@
       <c r="E264" t="n">
         <v>149</v>
       </c>
+      <c r="F264" t="n">
+        <v>0.05595193390912505</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0.02280030604437644</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -5475,6 +7063,12 @@
       <c r="E265" t="n">
         <v>149</v>
       </c>
+      <c r="F265" t="n">
+        <v>0.05406386066763425</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.02125838208018262</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -5494,6 +7088,12 @@
       <c r="E266" t="n">
         <v>96</v>
       </c>
+      <c r="F266" t="n">
+        <v>0.0335195530726257</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.01360351424117897</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -5513,6 +7113,12 @@
       <c r="E267" t="n">
         <v>114</v>
       </c>
+      <c r="F267" t="n">
+        <v>0.03864406779661017</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.01551864960522733</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -5532,6 +7138,12 @@
       <c r="E268" t="n">
         <v>137</v>
       </c>
+      <c r="F268" t="n">
+        <v>0.06171171171171171</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.02186751795690343</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -5551,6 +7163,12 @@
       <c r="E269" t="n">
         <v>236</v>
       </c>
+      <c r="F269" t="n">
+        <v>0.1252653927813163</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.0677382319173364</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -5570,6 +7188,12 @@
       <c r="E270" t="n">
         <v>116</v>
       </c>
+      <c r="F270" t="n">
+        <v>0.0605112154407929</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.017195375037059</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -5589,6 +7213,12 @@
       <c r="E271" t="n">
         <v>44</v>
       </c>
+      <c r="F271" t="n">
+        <v>0.02862719583604424</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.009282700421940928</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -5608,6 +7238,12 @@
       <c r="E272" t="n">
         <v>349</v>
       </c>
+      <c r="F272" t="n">
+        <v>0.1382725832012678</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05055040556199305</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -5627,6 +7263,12 @@
       <c r="E273" t="n">
         <v>122</v>
       </c>
+      <c r="F273" t="n">
+        <v>0.04298801973220578</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.01832382096725743</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -5646,6 +7288,12 @@
       <c r="E274" t="n">
         <v>101</v>
       </c>
+      <c r="F274" t="n">
+        <v>0.03586647727272727</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.01478986674476497</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -5665,6 +7313,12 @@
       <c r="E275" t="n">
         <v>79</v>
       </c>
+      <c r="F275" t="n">
+        <v>0.03087143415396639</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.01184052757793765</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -5684,6 +7338,12 @@
       <c r="E276" t="n">
         <v>28</v>
       </c>
+      <c r="F276" t="n">
+        <v>0.01314553990610329</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.004357976653696498</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -5703,6 +7363,12 @@
       <c r="E277" t="n">
         <v>611</v>
       </c>
+      <c r="F277" t="n">
+        <v>0.3340623291416074</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.1367196240769747</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -5722,6 +7388,12 @@
       <c r="E278" t="n">
         <v>2062</v>
       </c>
+      <c r="F278" t="n">
+        <v>0.9347234814143246</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.3498473023413641</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -5741,6 +7413,12 @@
       <c r="E279" t="n">
         <v>441</v>
       </c>
+      <c r="F279" t="n">
+        <v>0.2372243141473911</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.07270029673590504</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -5760,6 +7438,12 @@
       <c r="E280" t="n">
         <v>223</v>
       </c>
+      <c r="F280" t="n">
+        <v>0.1373152709359606</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04480610809724734</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -5779,6 +7463,12 @@
       <c r="E281" t="n">
         <v>280</v>
       </c>
+      <c r="F281" t="n">
+        <v>0.09029345372460497</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04071542823905773</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -5798,6 +7488,12 @@
       <c r="E282" t="n">
         <v>138</v>
       </c>
+      <c r="F282" t="n">
+        <v>0.05416012558869702</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.01916932907348243</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -5817,6 +7513,12 @@
       <c r="E283" t="n">
         <v>68</v>
       </c>
+      <c r="F283" t="n">
+        <v>0.02845188284518829</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.01004282971496086</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -5836,6 +7538,12 @@
       <c r="E284" t="n">
         <v>87</v>
       </c>
+      <c r="F284" t="n">
+        <v>0.03754855416486837</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.01291951291951292</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -5855,6 +7563,12 @@
       <c r="E285" t="n">
         <v>768</v>
       </c>
+      <c r="F285" t="n">
+        <v>0.3188044831880448</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.1435782389231632</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -5874,6 +7588,12 @@
       <c r="E286" t="n">
         <v>1680</v>
       </c>
+      <c r="F286" t="n">
+        <v>0.8940926024481107</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.398671096345515</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -5893,6 +7613,12 @@
       <c r="E287" t="n">
         <v>2076</v>
       </c>
+      <c r="F287" t="n">
+        <v>0.9895138226882746</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.5270373191165271</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -5912,6 +7638,12 @@
       <c r="E288" t="n">
         <v>239</v>
       </c>
+      <c r="F288" t="n">
+        <v>0.1413364872856298</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.03904590753144911</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -5931,6 +7663,12 @@
       <c r="E289" t="n">
         <v>171</v>
       </c>
+      <c r="F289" t="n">
+        <v>0.1164850136239782</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.03028692879914984</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -5950,6 +7688,12 @@
       <c r="E290" t="n">
         <v>155</v>
       </c>
+      <c r="F290" t="n">
+        <v>0.06447587354409318</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.02689104788341429</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -5969,6 +7713,12 @@
       <c r="E291" t="n">
         <v>223</v>
       </c>
+      <c r="F291" t="n">
+        <v>0.09361880772460117</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.03281824871228844</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -5988,6 +7738,12 @@
       <c r="E292" t="n">
         <v>154</v>
       </c>
+      <c r="F292" t="n">
+        <v>0.06347897774113767</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.0235906862745098</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -6007,6 +7763,12 @@
       <c r="E293" t="n">
         <v>126</v>
       </c>
+      <c r="F293" t="n">
+        <v>0.04774535809018567</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.01880035810205909</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -6026,6 +7788,12 @@
       <c r="E294" t="n">
         <v>191</v>
       </c>
+      <c r="F294" t="n">
+        <v>0.07892561983471075</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.0271770062606716</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -6045,6 +7813,12 @@
       <c r="E295" t="n">
         <v>363</v>
       </c>
+      <c r="F295" t="n">
+        <v>0.202680067001675</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.09821428571428571</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -6064,6 +7838,12 @@
       <c r="E296" t="n">
         <v>759</v>
       </c>
+      <c r="F296" t="n">
+        <v>0.2912509593246355</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.2816326530612245</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -6083,6 +7863,12 @@
       <c r="E297" t="n">
         <v>27</v>
       </c>
+      <c r="F297" t="n">
+        <v>0.01342615614122327</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.004403849290490948</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -6102,6 +7888,12 @@
       <c r="E298" t="n">
         <v>46</v>
       </c>
+      <c r="F298" t="n">
+        <v>0.0168313208927918</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.008039147151345682</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -6121,6 +7913,12 @@
       <c r="E299" t="n">
         <v>254</v>
       </c>
+      <c r="F299" t="n">
+        <v>0.1073088297422898</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.03671581381902284</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -6140,6 +7938,12 @@
       <c r="E300" t="n">
         <v>72</v>
       </c>
+      <c r="F300" t="n">
+        <v>0.02926829268292683</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.009991673605328892</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -6159,6 +7963,12 @@
       <c r="E301" t="n">
         <v>105</v>
       </c>
+      <c r="F301" t="n">
+        <v>0.04133858267716536</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.01544799176107106</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -6178,6 +7988,12 @@
       <c r="E302" t="n">
         <v>241</v>
       </c>
+      <c r="F302" t="n">
+        <v>0.0938108213312573</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.03878963463705135</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -6197,6 +8013,12 @@
       <c r="E303" t="n">
         <v>743</v>
       </c>
+      <c r="F303" t="n">
+        <v>0.2991143317230274</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.1302594670406732</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -6216,6 +8038,12 @@
       <c r="E304" t="n">
         <v>651</v>
       </c>
+      <c r="F304" t="n">
+        <v>0.2784431137724551</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.1096882898062342</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -6235,6 +8063,12 @@
       <c r="E305" t="n">
         <v>476</v>
       </c>
+      <c r="F305" t="n">
+        <v>0.2772277227722773</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.08880597014925373</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -6254,6 +8088,12 @@
       <c r="E306" t="n">
         <v>741</v>
       </c>
+      <c r="F306" t="n">
+        <v>0.432069970845481</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.1055555555555556</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -6273,6 +8113,12 @@
       <c r="E307" t="n">
         <v>19</v>
       </c>
+      <c r="F307" t="n">
+        <v>0.01001581444385872</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.003106097760340036</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -6292,6 +8138,12 @@
       <c r="E308" t="n">
         <v>170</v>
       </c>
+      <c r="F308" t="n">
+        <v>0.06021962451292951</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.02345474613686534</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -6311,6 +8163,12 @@
       <c r="E309" t="n">
         <v>154</v>
       </c>
+      <c r="F309" t="n">
+        <v>0.05525654825977754</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.02041086812458582</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -6330,6 +8188,12 @@
       <c r="E310" t="n">
         <v>420</v>
       </c>
+      <c r="F310" t="n">
+        <v>0.1587901701323251</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05860192549183759</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -6349,6 +8213,12 @@
       <c r="E311" t="n">
         <v>520</v>
       </c>
+      <c r="F311" t="n">
+        <v>0.2117263843648209</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.1021611001964637</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -6368,6 +8238,12 @@
       <c r="E312" t="n">
         <v>1173</v>
       </c>
+      <c r="F312" t="n">
+        <v>0.7597150259067358</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.2593411452575724</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -6387,6 +8263,12 @@
       <c r="E313" t="n">
         <v>1459</v>
       </c>
+      <c r="F313" t="n">
+        <v>0.7899296155928532</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.2603962163126896</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -6406,6 +8288,12 @@
       <c r="E314" t="n">
         <v>116</v>
       </c>
+      <c r="F314" t="n">
+        <v>0.06791569086651054</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.02254616132167152</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -6425,6 +8313,12 @@
       <c r="E315" t="n">
         <v>183</v>
       </c>
+      <c r="F315" t="n">
+        <v>0.09010339734121123</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.03534865752366236</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -6444,6 +8338,12 @@
       <c r="E316" t="n">
         <v>80</v>
       </c>
+      <c r="F316" t="n">
+        <v>0.03942828979793001</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.01120448179271709</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -6463,6 +8363,12 @@
       <c r="E317" t="n">
         <v>213</v>
       </c>
+      <c r="F317" t="n">
+        <v>0.09934701492537314</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.0316446293269945</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -6482,6 +8388,12 @@
       <c r="E318" t="n">
         <v>234</v>
       </c>
+      <c r="F318" t="n">
+        <v>0.1058823529411765</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.03411078717201166</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -6501,6 +8413,12 @@
       <c r="E319" t="n">
         <v>354</v>
       </c>
+      <c r="F319" t="n">
+        <v>0.1641929499072356</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05896069287141906</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -6520,6 +8438,12 @@
       <c r="E320" t="n">
         <v>85</v>
       </c>
+      <c r="F320" t="n">
+        <v>0.05902777777777778</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.01766417290108063</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -6539,6 +8463,12 @@
       <c r="E321" t="n">
         <v>877</v>
       </c>
+      <c r="F321" t="n">
+        <v>0.4821330401319406</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.1859232563069748</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -6550,13 +8480,19 @@
         <v>9</v>
       </c>
       <c r="C322" t="n">
-        <v>1808</v>
+        <v>0</v>
       </c>
       <c r="D322" t="n">
         <v>5741</v>
       </c>
       <c r="E322" t="n">
-        <v>816</v>
+        <v>0</v>
+      </c>
+      <c r="F322" t="n">
+        <v>0</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="323">
@@ -6577,6 +8513,12 @@
       <c r="E323" t="n">
         <v>146</v>
       </c>
+      <c r="F323" t="n">
+        <v>0.119281045751634</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.02068574667044489</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -6596,6 +8538,12 @@
       <c r="E324" t="n">
         <v>205</v>
       </c>
+      <c r="F324" t="n">
+        <v>0.1320025756600129</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.03859913387309358</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -6615,6 +8563,12 @@
       <c r="E325" t="n">
         <v>315</v>
       </c>
+      <c r="F325" t="n">
+        <v>0.1616213442791175</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.04381084840055633</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -6634,6 +8588,12 @@
       <c r="E326" t="n">
         <v>329</v>
       </c>
+      <c r="F326" t="n">
+        <v>0.1464826357969724</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.04485344239945467</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -6653,6 +8613,12 @@
       <c r="E327" t="n">
         <v>524</v>
       </c>
+      <c r="F327" t="n">
+        <v>0.2024729520865533</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.07718367948151421</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -6672,6 +8638,12 @@
       <c r="E328" t="n">
         <v>551</v>
       </c>
+      <c r="F328" t="n">
+        <v>0.2228964401294498</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.07557262378274585</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -6691,6 +8663,12 @@
       <c r="E329" t="n">
         <v>397</v>
       </c>
+      <c r="F329" t="n">
+        <v>0.213785675821217</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.06235275640018847</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -6710,6 +8688,12 @@
       <c r="E330" t="n">
         <v>801</v>
       </c>
+      <c r="F330" t="n">
+        <v>0.4053643724696356</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.1340137192571524</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -6729,6 +8713,12 @@
       <c r="E331" t="n">
         <v>1088</v>
       </c>
+      <c r="F331" t="n">
+        <v>0.4881112606550023</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.1986126323475721</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -6748,6 +8738,12 @@
       <c r="E332" t="n">
         <v>1286</v>
       </c>
+      <c r="F332" t="n">
+        <v>0.7728365384615384</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.177820796460177</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -6767,6 +8763,12 @@
       <c r="E333" t="n">
         <v>561</v>
       </c>
+      <c r="F333" t="n">
+        <v>0.2661290322580645</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.0864007392576621</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -6786,6 +8788,12 @@
       <c r="E334" t="n">
         <v>380</v>
       </c>
+      <c r="F334" t="n">
+        <v>0.2185163887291547</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.1005025125628141</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -6805,6 +8813,12 @@
       <c r="E335" t="n">
         <v>304</v>
       </c>
+      <c r="F335" t="n">
+        <v>0.1389396709323583</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.04631322364411944</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -6824,6 +8838,12 @@
       <c r="E336" t="n">
         <v>112</v>
       </c>
+      <c r="F336" t="n">
+        <v>0.0495575221238938</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.0147329650092081</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -6843,6 +8863,12 @@
       <c r="E337" t="n">
         <v>29</v>
       </c>
+      <c r="F337" t="n">
+        <v>0.01227253491324587</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.004438322620140802</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -6862,6 +8888,12 @@
       <c r="E338" t="n">
         <v>22</v>
       </c>
+      <c r="F338" t="n">
+        <v>0.01335761991499696</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.003562753036437247</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -6881,6 +8913,12 @@
       <c r="E339" t="n">
         <v>216</v>
       </c>
+      <c r="F339" t="n">
+        <v>0.1454545454545454</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.04025344763324636</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -6900,6 +8938,12 @@
       <c r="E340" t="n">
         <v>1165</v>
       </c>
+      <c r="F340" t="n">
+        <v>0.4465312380222307</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.3158037408511792</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -6919,6 +8963,12 @@
       <c r="E341" t="n">
         <v>698</v>
       </c>
+      <c r="F341" t="n">
+        <v>0.5065312046444121</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.248310209889719</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -6938,6 +8988,12 @@
       <c r="E342" t="n">
         <v>555</v>
       </c>
+      <c r="F342" t="n">
+        <v>0.3234265734265734</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.08917095115681234</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -6957,6 +9013,12 @@
       <c r="E343" t="n">
         <v>501</v>
       </c>
+      <c r="F343" t="n">
+        <v>0.2771017699115044</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.1313581541688516</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -6976,6 +9038,12 @@
       <c r="E344" t="n">
         <v>405</v>
       </c>
+      <c r="F344" t="n">
+        <v>0.2189189189189189</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.06190767349434424</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -6995,6 +9063,12 @@
       <c r="E345" t="n">
         <v>234</v>
       </c>
+      <c r="F345" t="n">
+        <v>0.1292103810049696</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.03326698891100369</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -7014,6 +9088,12 @@
       <c r="E346" t="n">
         <v>339</v>
       </c>
+      <c r="F346" t="n">
+        <v>0.1438879456706282</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.0508703481392557</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -7033,6 +9113,12 @@
       <c r="E347" t="n">
         <v>861</v>
       </c>
+      <c r="F347" t="n">
+        <v>0.3583021223470662</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.1698895027624309</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -7052,6 +9138,12 @@
       <c r="E348" t="n">
         <v>637</v>
       </c>
+      <c r="F348" t="n">
+        <v>0.2780445220427761</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.1478644382544104</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -7071,6 +9163,12 @@
       <c r="E349" t="n">
         <v>1498</v>
       </c>
+      <c r="F349" t="n">
+        <v>0.6570175438596492</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.2376646041567508</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -7090,6 +9188,12 @@
       <c r="E350" t="n">
         <v>788</v>
       </c>
+      <c r="F350" t="n">
+        <v>0.5701881331403763</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.1304635761589404</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -7109,6 +9213,12 @@
       <c r="E351" t="n">
         <v>516</v>
       </c>
+      <c r="F351" t="n">
+        <v>0.3669985775248933</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.1026661360923199</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -7128,6 +9238,12 @@
       <c r="E352" t="n">
         <v>411</v>
       </c>
+      <c r="F352" t="n">
+        <v>0.2292247629670943</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.06240510173094443</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -7147,6 +9263,12 @@
       <c r="E353" t="n">
         <v>152</v>
       </c>
+      <c r="F353" t="n">
+        <v>0.06402695871946082</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.02246194768730604</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -7166,6 +9288,12 @@
       <c r="E354" t="n">
         <v>186</v>
       </c>
+      <c r="F354" t="n">
+        <v>0.07357594936708861</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.02882827030378177</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -7185,6 +9313,12 @@
       <c r="E355" t="n">
         <v>171</v>
       </c>
+      <c r="F355" t="n">
+        <v>0.07261146496815286</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.02628747117601845</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -7204,6 +9338,12 @@
       <c r="E356" t="n">
         <v>67</v>
       </c>
+      <c r="F356" t="n">
+        <v>0.03117729176361098</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.009927396651355756</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -7223,6 +9363,12 @@
       <c r="E357" t="n">
         <v>181</v>
       </c>
+      <c r="F357" t="n">
+        <v>0.09934138309549945</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.03090319276079904</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -7242,6 +9388,12 @@
       <c r="E358" t="n">
         <v>1303</v>
       </c>
+      <c r="F358" t="n">
+        <v>0.5032831208960988</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.3048666354702855</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -7261,6 +9413,12 @@
       <c r="E359" t="n">
         <v>1034</v>
       </c>
+      <c r="F359" t="n">
+        <v>0.4895833333333333</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.248140148788097</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -7280,6 +9438,12 @@
       <c r="E360" t="n">
         <v>263</v>
       </c>
+      <c r="F360" t="n">
+        <v>0.3337563451776649</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.03614623419461242</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -7299,6 +9463,12 @@
       <c r="E361" t="n">
         <v>144</v>
       </c>
+      <c r="F361" t="n">
+        <v>0.1481481481481481</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.0286795459071898</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -7318,6 +9488,12 @@
       <c r="E362" t="n">
         <v>181</v>
       </c>
+      <c r="F362" t="n">
+        <v>0.1404189294026377</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.02852190356129846</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -7337,6 +9513,12 @@
       <c r="E363" t="n">
         <v>286</v>
       </c>
+      <c r="F363" t="n">
+        <v>0.162870159453303</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.04486978349545027</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -7356,6 +9538,12 @@
       <c r="E364" t="n">
         <v>148</v>
       </c>
+      <c r="F364" t="n">
+        <v>0.07716371220020855</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.02165642376353526</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -7375,6 +9563,12 @@
       <c r="E365" t="n">
         <v>269</v>
       </c>
+      <c r="F365" t="n">
+        <v>0.1271266540642722</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.04139098322818895</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -7394,6 +9588,12 @@
       <c r="E366" t="n">
         <v>388</v>
       </c>
+      <c r="F366" t="n">
+        <v>0.1844983357108892</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.06455906821963395</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -7413,6 +9613,12 @@
       <c r="E367" t="n">
         <v>575</v>
       </c>
+      <c r="F367" t="n">
+        <v>0.2066115702479339</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.09233981050264975</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -7432,6 +9638,12 @@
       <c r="E368" t="n">
         <v>635</v>
       </c>
+      <c r="F368" t="n">
+        <v>0.2673684210526316</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.09100028661507595</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -7451,6 +9663,12 @@
       <c r="E369" t="n">
         <v>521</v>
       </c>
+      <c r="F369" t="n">
+        <v>0.2994252873563218</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.08753360215053764</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -7470,6 +9688,12 @@
       <c r="E370" t="n">
         <v>1871</v>
       </c>
+      <c r="F370" t="n">
+        <v>0.698134328358209</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.3024082754161952</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -7489,6 +9713,12 @@
       <c r="E371" t="n">
         <v>2369</v>
       </c>
+      <c r="F371" t="n">
+        <v>0.8403689251507627</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.3732472034031826</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -7508,6 +9738,12 @@
       <c r="E372" t="n">
         <v>47</v>
       </c>
+      <c r="F372" t="n">
+        <v>0.0241025641025641</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.007030665669409125</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -7527,6 +9763,12 @@
       <c r="E373" t="n">
         <v>19</v>
       </c>
+      <c r="F373" t="n">
+        <v>0.01308539944903581</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.003053680488588878</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -7546,6 +9788,12 @@
       <c r="E374" t="n">
         <v>116</v>
       </c>
+      <c r="F374" t="n">
+        <v>0.04819277108433735</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.01531353135313531</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -7565,6 +9813,12 @@
       <c r="E375" t="n">
         <v>59</v>
       </c>
+      <c r="F375" t="n">
+        <v>0.02082597952700318</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.008227583321712454</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -7584,6 +9838,12 @@
       <c r="E376" t="n">
         <v>47</v>
       </c>
+      <c r="F376" t="n">
+        <v>0.01787072243346008</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.007151552038953134</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -7603,6 +9863,12 @@
       <c r="E377" t="n">
         <v>110</v>
       </c>
+      <c r="F377" t="n">
+        <v>0.04462474645030426</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.01599069632213984</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -7622,6 +9888,12 @@
       <c r="E378" t="n">
         <v>184</v>
       </c>
+      <c r="F378" t="n">
+        <v>0.08314505196565748</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.02984590429845904</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -7641,6 +9913,12 @@
       <c r="E379" t="n">
         <v>1278</v>
       </c>
+      <c r="F379" t="n">
+        <v>0.5442930153321976</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.2567296102852551</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -7660,6 +9938,12 @@
       <c r="E380" t="n">
         <v>1489</v>
       </c>
+      <c r="F380" t="n">
+        <v>0.789920424403183</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.4165034965034965</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -7679,6 +9963,12 @@
       <c r="E381" t="n">
         <v>1646</v>
       </c>
+      <c r="F381" t="n">
+        <v>0.9144444444444444</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.6040366972477064</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -7698,6 +9988,12 @@
       <c r="E382" t="n">
         <v>187</v>
       </c>
+      <c r="F382" t="n">
+        <v>0.1784351145038168</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.02838925155609534</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -7717,6 +10013,12 @@
       <c r="E383" t="n">
         <v>155</v>
       </c>
+      <c r="F383" t="n">
+        <v>0.1337359792924935</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.02769340718241915</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -7736,6 +10038,12 @@
       <c r="E384" t="n">
         <v>370</v>
       </c>
+      <c r="F384" t="n">
+        <v>0.2153667054714785</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.05340646651270208</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -7755,6 +10063,12 @@
       <c r="E385" t="n">
         <v>226</v>
       </c>
+      <c r="F385" t="n">
+        <v>0.1047751506722299</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.0356523110900773</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -7774,6 +10088,12 @@
       <c r="E386" t="n">
         <v>190</v>
       </c>
+      <c r="F386" t="n">
+        <v>0.08200258955545965</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.02563756578059641</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -7793,6 +10113,12 @@
       <c r="E387" t="n">
         <v>294</v>
       </c>
+      <c r="F387" t="n">
+        <v>0.1278816876903001</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.05723184738174032</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -7812,6 +10138,12 @@
       <c r="E388" t="n">
         <v>634</v>
       </c>
+      <c r="F388" t="n">
+        <v>0.3104799216454456</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1563887518500247</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -7830,6 +10162,12 @@
       </c>
       <c r="E389" t="n">
         <v>851</v>
+      </c>
+      <c r="F389" t="n">
+        <v>0.3745598591549296</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.3011323425336164</v>
       </c>
     </row>
   </sheetData>
